--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7883727121887989</v>
+        <v>0.7883727121888021</v>
       </c>
       <c r="D2">
-        <v>0.795775468949553</v>
+        <v>0.7957754689495562</v>
       </c>
       <c r="E2">
-        <v>0.8242287457485702</v>
+        <v>0.824228745748573</v>
       </c>
       <c r="F2">
-        <v>0.7457648898010024</v>
+        <v>0.7457648898010056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.00568286676333</v>
+        <v>1.005682866763331</v>
       </c>
       <c r="J2">
-        <v>0.8194482276601056</v>
+        <v>0.8194482276601086</v>
       </c>
       <c r="K2">
-        <v>0.8110689273947058</v>
+        <v>0.8110689273947093</v>
       </c>
       <c r="L2">
-        <v>0.8388356444822184</v>
+        <v>0.8388356444822211</v>
       </c>
       <c r="M2">
-        <v>0.7624405440924067</v>
+        <v>0.7624405440924099</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8496163061416692</v>
+        <v>0.8496163061416714</v>
       </c>
       <c r="D3">
-        <v>0.8568247824480036</v>
+        <v>0.8568247824480055</v>
       </c>
       <c r="E3">
-        <v>0.87612070805228</v>
+        <v>0.8761207080522816</v>
       </c>
       <c r="F3">
-        <v>0.8260677274978602</v>
+        <v>0.8260677274978617</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019162612671331</v>
+        <v>1.01916261267133</v>
       </c>
       <c r="J3">
-        <v>0.8752560486363619</v>
+        <v>0.8752560486363639</v>
       </c>
       <c r="K3">
-        <v>0.8696894919289921</v>
+        <v>0.8696894919289944</v>
       </c>
       <c r="L3">
-        <v>0.8886294042122447</v>
+        <v>0.8886294042122462</v>
       </c>
       <c r="M3">
-        <v>0.8395453899636764</v>
+        <v>0.8395453899636782</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8749565682552122</v>
+        <v>0.8749565682552156</v>
       </c>
       <c r="D4">
-        <v>0.8819960625441861</v>
+        <v>0.8819960625441897</v>
       </c>
       <c r="E4">
-        <v>0.8976512592107637</v>
+        <v>0.8976512592107669</v>
       </c>
       <c r="F4">
-        <v>0.858271295428317</v>
+        <v>0.8582712954283203</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024651546372816</v>
       </c>
       <c r="J4">
-        <v>0.8982073557878479</v>
+        <v>0.8982073557878514</v>
       </c>
       <c r="K4">
-        <v>0.893763547496653</v>
+        <v>0.8937635474966565</v>
       </c>
       <c r="L4">
-        <v>0.9091650008443987</v>
+        <v>0.9091650008444019</v>
       </c>
       <c r="M4">
-        <v>0.8704462139800797</v>
+        <v>0.8704462139800828</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.884166782882276</v>
+        <v>0.8841667828822692</v>
       </c>
       <c r="D5">
-        <v>0.8911329916786443</v>
+        <v>0.8911329916786375</v>
       </c>
       <c r="E5">
-        <v>0.9054853215924307</v>
+        <v>0.9054853215924246</v>
       </c>
       <c r="F5">
-        <v>0.8698382408163943</v>
+        <v>0.8698382408163882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026624657103382</v>
+        <v>1.026624657103381</v>
       </c>
       <c r="J5">
-        <v>0.906528928485098</v>
+        <v>0.9065289284850914</v>
       </c>
       <c r="K5">
-        <v>0.9024875986965636</v>
+        <v>0.9024875986965567</v>
       </c>
       <c r="L5">
-        <v>0.9166187770637325</v>
+        <v>0.9166187770637265</v>
       </c>
       <c r="M5">
-        <v>0.8815382995699106</v>
+        <v>0.8815382995699045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8856487802887733</v>
+        <v>0.8856487802887711</v>
       </c>
       <c r="D6">
-        <v>0.8926026084785961</v>
+        <v>0.8926026084785942</v>
       </c>
       <c r="E6">
-        <v>0.9067463047075419</v>
+        <v>0.9067463047075403</v>
       </c>
       <c r="F6">
-        <v>0.8716926531418835</v>
+        <v>0.8716926531418819</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026940834293441</v>
       </c>
       <c r="J6">
-        <v>0.9078668996067465</v>
+        <v>0.9078668996067445</v>
       </c>
       <c r="K6">
-        <v>0.9038900545255515</v>
+        <v>0.9038900545255494</v>
       </c>
       <c r="L6">
-        <v>0.917817622938877</v>
+        <v>0.9178176229388753</v>
       </c>
       <c r="M6">
-        <v>0.8833161576274025</v>
+        <v>0.883316157627401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750843006793309</v>
+        <v>0.8750843006793337</v>
       </c>
       <c r="D7">
-        <v>0.8821228216500437</v>
+        <v>0.8821228216500461</v>
       </c>
       <c r="E7">
-        <v>0.8977598755363487</v>
+        <v>0.8977598755363512</v>
       </c>
       <c r="F7">
-        <v>0.858432210875446</v>
+        <v>0.8584322108754484</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024679001554287</v>
       </c>
       <c r="J7">
-        <v>0.8983228392947765</v>
+        <v>0.8983228392947791</v>
       </c>
       <c r="K7">
-        <v>0.893884633105363</v>
+        <v>0.8938846331053654</v>
       </c>
       <c r="L7">
-        <v>0.9092684119786615</v>
+        <v>0.9092684119786641</v>
       </c>
       <c r="M7">
-        <v>0.8706005527861386</v>
+        <v>0.870600552786141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D8">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E8">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F8">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J8">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K8">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L8">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M8">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D9">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E9">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F9">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J9">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K9">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L9">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M9">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D10">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E10">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F10">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J10">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K10">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L10">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M10">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D11">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E11">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F11">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J11">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K11">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L11">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M11">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D12">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E12">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F12">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J12">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K12">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L12">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M12">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D13">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E13">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F13">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J13">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K13">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L13">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M13">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D14">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E14">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F14">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J14">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K14">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L14">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M14">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D15">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E15">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F15">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J15">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K15">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L15">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M15">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D16">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E16">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F16">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J16">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K16">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L16">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M16">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D17">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E17">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F17">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J17">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K17">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L17">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M17">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D18">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E18">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F18">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J18">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K18">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L18">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M18">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D19">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E19">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F19">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J19">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K19">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L19">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M19">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D20">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E20">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F20">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J20">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K20">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L20">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M20">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D21">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E21">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F21">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J21">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K21">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L21">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M21">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D22">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E22">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F22">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J22">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K22">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L22">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M22">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D23">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E23">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F23">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J23">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K23">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L23">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M23">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D24">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E24">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F24">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J24">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K24">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L24">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M24">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147721317284903</v>
+        <v>0.8147721317284947</v>
       </c>
       <c r="D25">
-        <v>0.8221312357732159</v>
+        <v>0.8221312357732202</v>
       </c>
       <c r="E25">
-        <v>0.8465721375052375</v>
+        <v>0.8465721375052413</v>
       </c>
       <c r="F25">
-        <v>0.7808376971948869</v>
+        <v>0.7808376971948915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011517131836654</v>
+        <v>1.011517131836655</v>
       </c>
       <c r="J25">
-        <v>0.8435645810015193</v>
+        <v>0.8435645810015232</v>
       </c>
       <c r="K25">
-        <v>0.8364159717367619</v>
+        <v>0.836415971736766</v>
       </c>
       <c r="L25">
-        <v>0.8603280568991818</v>
+        <v>0.8603280568991853</v>
       </c>
       <c r="M25">
-        <v>0.7961179051931425</v>
+        <v>0.7961179051931472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7883727121888021</v>
+        <v>0.7883727121887989</v>
       </c>
       <c r="D2">
-        <v>0.7957754689495562</v>
+        <v>0.795775468949553</v>
       </c>
       <c r="E2">
-        <v>0.824228745748573</v>
+        <v>0.8242287457485702</v>
       </c>
       <c r="F2">
-        <v>0.7457648898010056</v>
+        <v>0.7457648898010024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005682866763331</v>
+        <v>1.00568286676333</v>
       </c>
       <c r="J2">
-        <v>0.8194482276601086</v>
+        <v>0.8194482276601056</v>
       </c>
       <c r="K2">
-        <v>0.8110689273947093</v>
+        <v>0.8110689273947058</v>
       </c>
       <c r="L2">
-        <v>0.8388356444822211</v>
+        <v>0.8388356444822184</v>
       </c>
       <c r="M2">
-        <v>0.7624405440924099</v>
+        <v>0.7624405440924067</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8496163061416714</v>
+        <v>0.8496163061416692</v>
       </c>
       <c r="D3">
-        <v>0.8568247824480055</v>
+        <v>0.8568247824480036</v>
       </c>
       <c r="E3">
-        <v>0.8761207080522816</v>
+        <v>0.87612070805228</v>
       </c>
       <c r="F3">
-        <v>0.8260677274978617</v>
+        <v>0.8260677274978602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.01916261267133</v>
+        <v>1.019162612671331</v>
       </c>
       <c r="J3">
-        <v>0.8752560486363639</v>
+        <v>0.8752560486363619</v>
       </c>
       <c r="K3">
-        <v>0.8696894919289944</v>
+        <v>0.8696894919289921</v>
       </c>
       <c r="L3">
-        <v>0.8886294042122462</v>
+        <v>0.8886294042122447</v>
       </c>
       <c r="M3">
-        <v>0.8395453899636782</v>
+        <v>0.8395453899636764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8749565682552156</v>
+        <v>0.8749565682552122</v>
       </c>
       <c r="D4">
-        <v>0.8819960625441897</v>
+        <v>0.8819960625441861</v>
       </c>
       <c r="E4">
-        <v>0.8976512592107669</v>
+        <v>0.8976512592107637</v>
       </c>
       <c r="F4">
-        <v>0.8582712954283203</v>
+        <v>0.858271295428317</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.024651546372816</v>
       </c>
       <c r="J4">
-        <v>0.8982073557878514</v>
+        <v>0.8982073557878479</v>
       </c>
       <c r="K4">
-        <v>0.8937635474966565</v>
+        <v>0.893763547496653</v>
       </c>
       <c r="L4">
-        <v>0.9091650008444019</v>
+        <v>0.9091650008443987</v>
       </c>
       <c r="M4">
-        <v>0.8704462139800828</v>
+        <v>0.8704462139800797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8841667828822692</v>
+        <v>0.884166782882276</v>
       </c>
       <c r="D5">
-        <v>0.8911329916786375</v>
+        <v>0.8911329916786443</v>
       </c>
       <c r="E5">
-        <v>0.9054853215924246</v>
+        <v>0.9054853215924307</v>
       </c>
       <c r="F5">
-        <v>0.8698382408163882</v>
+        <v>0.8698382408163943</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026624657103381</v>
+        <v>1.026624657103382</v>
       </c>
       <c r="J5">
-        <v>0.9065289284850914</v>
+        <v>0.906528928485098</v>
       </c>
       <c r="K5">
-        <v>0.9024875986965567</v>
+        <v>0.9024875986965636</v>
       </c>
       <c r="L5">
-        <v>0.9166187770637265</v>
+        <v>0.9166187770637325</v>
       </c>
       <c r="M5">
-        <v>0.8815382995699045</v>
+        <v>0.8815382995699106</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8856487802887711</v>
+        <v>0.8856487802887733</v>
       </c>
       <c r="D6">
-        <v>0.8926026084785942</v>
+        <v>0.8926026084785961</v>
       </c>
       <c r="E6">
-        <v>0.9067463047075403</v>
+        <v>0.9067463047075419</v>
       </c>
       <c r="F6">
-        <v>0.8716926531418819</v>
+        <v>0.8716926531418835</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.026940834293441</v>
       </c>
       <c r="J6">
-        <v>0.9078668996067445</v>
+        <v>0.9078668996067465</v>
       </c>
       <c r="K6">
-        <v>0.9038900545255494</v>
+        <v>0.9038900545255515</v>
       </c>
       <c r="L6">
-        <v>0.9178176229388753</v>
+        <v>0.917817622938877</v>
       </c>
       <c r="M6">
-        <v>0.883316157627401</v>
+        <v>0.8833161576274025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750843006793337</v>
+        <v>0.8750843006793309</v>
       </c>
       <c r="D7">
-        <v>0.8821228216500461</v>
+        <v>0.8821228216500437</v>
       </c>
       <c r="E7">
-        <v>0.8977598755363512</v>
+        <v>0.8977598755363487</v>
       </c>
       <c r="F7">
-        <v>0.8584322108754484</v>
+        <v>0.858432210875446</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.024679001554287</v>
       </c>
       <c r="J7">
-        <v>0.8983228392947791</v>
+        <v>0.8983228392947765</v>
       </c>
       <c r="K7">
-        <v>0.8938846331053654</v>
+        <v>0.893884633105363</v>
       </c>
       <c r="L7">
-        <v>0.9092684119786641</v>
+        <v>0.9092684119786615</v>
       </c>
       <c r="M7">
-        <v>0.870600552786141</v>
+        <v>0.8706005527861386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D8">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E8">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F8">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J8">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K8">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L8">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M8">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D9">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E9">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F9">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J9">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K9">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L9">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M9">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D10">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E10">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F10">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J10">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K10">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L10">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M10">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D11">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E11">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F11">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J11">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K11">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L11">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M11">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D12">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E12">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F12">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J12">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K12">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L12">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M12">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D13">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E13">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F13">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J13">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K13">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L13">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M13">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D14">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E14">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F14">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J14">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K14">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L14">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M14">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D15">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E15">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F15">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J15">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K15">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L15">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M15">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D16">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E16">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F16">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J16">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K16">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L16">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M16">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D17">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E17">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F17">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J17">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K17">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L17">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M17">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D18">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E18">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F18">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J18">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K18">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L18">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M18">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D19">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E19">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F19">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J19">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K19">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L19">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M19">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D20">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E20">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F20">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J20">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K20">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L20">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M20">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D21">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E21">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F21">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J21">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K21">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L21">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M21">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D22">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E22">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F22">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J22">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K22">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L22">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M22">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D23">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E23">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F23">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J23">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K23">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L23">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M23">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D24">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E24">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F24">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J24">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K24">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L24">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M24">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147721317284947</v>
+        <v>0.8147721317284903</v>
       </c>
       <c r="D25">
-        <v>0.8221312357732202</v>
+        <v>0.8221312357732159</v>
       </c>
       <c r="E25">
-        <v>0.8465721375052413</v>
+        <v>0.8465721375052375</v>
       </c>
       <c r="F25">
-        <v>0.7808376971948915</v>
+        <v>0.7808376971948869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011517131836655</v>
+        <v>1.011517131836654</v>
       </c>
       <c r="J25">
-        <v>0.8435645810015232</v>
+        <v>0.8435645810015193</v>
       </c>
       <c r="K25">
-        <v>0.836415971736766</v>
+        <v>0.8364159717367619</v>
       </c>
       <c r="L25">
-        <v>0.8603280568991853</v>
+        <v>0.8603280568991818</v>
       </c>
       <c r="M25">
-        <v>0.7961179051931472</v>
+        <v>0.7961179051931425</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7883727121887989</v>
+        <v>0.7889448135903653</v>
       </c>
       <c r="D2">
-        <v>0.795775468949553</v>
+        <v>0.7963415525540301</v>
       </c>
       <c r="E2">
-        <v>0.8242287457485702</v>
+        <v>0.8247174360332998</v>
       </c>
       <c r="F2">
-        <v>0.7457648898010024</v>
+        <v>0.7463989956076765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.00568286676333</v>
+        <v>1.005769164416686</v>
       </c>
       <c r="J2">
-        <v>0.8194482276601056</v>
+        <v>0.8199867115710024</v>
       </c>
       <c r="K2">
-        <v>0.8110689273947058</v>
+        <v>0.811620705517706</v>
       </c>
       <c r="L2">
-        <v>0.8388356444822184</v>
+        <v>0.8393130956490269</v>
       </c>
       <c r="M2">
-        <v>0.7624405440924067</v>
+        <v>0.7630555261038043</v>
+      </c>
+      <c r="N2">
+        <v>0.8803503944877511</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8496163061416692</v>
+        <v>0.8498746544438416</v>
       </c>
       <c r="D3">
-        <v>0.8568247824480036</v>
+        <v>0.8570790606575045</v>
       </c>
       <c r="E3">
-        <v>0.87612070805228</v>
+        <v>0.8763438281993901</v>
       </c>
       <c r="F3">
-        <v>0.8260677274978602</v>
+        <v>0.8263157555862094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019162612671331</v>
+        <v>1.019192743137922</v>
       </c>
       <c r="J3">
-        <v>0.8752560486363619</v>
+        <v>0.8755033063914565</v>
       </c>
       <c r="K3">
-        <v>0.8696894919289921</v>
+        <v>0.8699389423695846</v>
       </c>
       <c r="L3">
-        <v>0.8886294042122447</v>
+        <v>0.8888485268440247</v>
       </c>
       <c r="M3">
-        <v>0.8395453899636764</v>
+        <v>0.8397882338291199</v>
+      </c>
+      <c r="N3">
+        <v>0.9179582650192876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8749565682552122</v>
+        <v>0.8751514672432018</v>
       </c>
       <c r="D4">
-        <v>0.8819960625441861</v>
+        <v>0.8821877596858269</v>
       </c>
       <c r="E4">
-        <v>0.8976512592107637</v>
+        <v>0.8978202435642756</v>
       </c>
       <c r="F4">
-        <v>0.858271295428317</v>
+        <v>0.8584509864033728</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.024651546372816</v>
+        <v>1.02467254902086</v>
       </c>
       <c r="J4">
-        <v>0.8982073557878479</v>
+        <v>0.8983950503088395</v>
       </c>
       <c r="K4">
-        <v>0.893763547496653</v>
+        <v>0.8939520674566815</v>
       </c>
       <c r="L4">
-        <v>0.9091650008443987</v>
+        <v>0.9093313080848774</v>
       </c>
       <c r="M4">
-        <v>0.8704462139800797</v>
+        <v>0.8706227092203449</v>
+      </c>
+      <c r="N4">
+        <v>0.9334757313257895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.884166782882276</v>
+        <v>0.8843423368119865</v>
       </c>
       <c r="D5">
-        <v>0.8911329916786443</v>
+        <v>0.8913056394343776</v>
       </c>
       <c r="E5">
-        <v>0.9054853215924307</v>
+        <v>0.9056377417924223</v>
       </c>
       <c r="F5">
-        <v>0.8698382408163943</v>
+        <v>0.8699980338629069</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026624657103382</v>
+        <v>1.026643093810785</v>
       </c>
       <c r="J5">
-        <v>0.906528928485098</v>
+        <v>0.9066983591808174</v>
       </c>
       <c r="K5">
-        <v>0.9024875986965636</v>
+        <v>0.9026575320165782</v>
       </c>
       <c r="L5">
-        <v>0.9166187770637325</v>
+        <v>0.9167688965685414</v>
       </c>
       <c r="M5">
-        <v>0.8815382995699106</v>
+        <v>0.8816954192430541</v>
+      </c>
+      <c r="N5">
+        <v>0.9391050157737534</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8856487802887733</v>
+        <v>0.8858213651051456</v>
       </c>
       <c r="D6">
-        <v>0.8926026084785961</v>
+        <v>0.8927723336074584</v>
       </c>
       <c r="E6">
-        <v>0.9067463047075419</v>
+        <v>0.9068961798107605</v>
       </c>
       <c r="F6">
-        <v>0.8716926531418835</v>
+        <v>0.87184943289327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026940834293441</v>
+        <v>1.026958886629437</v>
       </c>
       <c r="J6">
-        <v>0.9078668996067465</v>
+        <v>0.9080335219807497</v>
       </c>
       <c r="K6">
-        <v>0.9038900545255515</v>
+        <v>0.9040571342218912</v>
       </c>
       <c r="L6">
-        <v>0.917817622938877</v>
+        <v>0.9179652537552714</v>
       </c>
       <c r="M6">
-        <v>0.8833161576274025</v>
+        <v>0.8834703404622274</v>
+      </c>
+      <c r="N6">
+        <v>0.9400102227445866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8750843006793309</v>
+        <v>0.8752789201270973</v>
       </c>
       <c r="D7">
-        <v>0.8821228216500437</v>
+        <v>0.8823142434305397</v>
       </c>
       <c r="E7">
-        <v>0.8977598755363487</v>
+        <v>0.8979286207518762</v>
       </c>
       <c r="F7">
-        <v>0.858432210875446</v>
+        <v>0.8586116110813187</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024679001554287</v>
+        <v>1.024699966371695</v>
       </c>
       <c r="J7">
-        <v>0.8983228392947765</v>
+        <v>0.8985102702952961</v>
       </c>
       <c r="K7">
-        <v>0.893884633105363</v>
+        <v>0.8940728845458477</v>
       </c>
       <c r="L7">
-        <v>0.9092684119786615</v>
+        <v>0.9094344856238145</v>
       </c>
       <c r="M7">
-        <v>0.8706005527861386</v>
+        <v>0.8707767650996768</v>
+      </c>
+      <c r="N7">
+        <v>0.9335538433943207</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D8">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E8">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F8">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J8">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K8">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L8">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M8">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N8">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D9">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E9">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F9">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J9">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K9">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L9">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M9">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N9">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D10">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E10">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F10">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J10">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K10">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L10">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M10">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N10">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D11">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E11">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F11">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J11">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K11">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L11">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M11">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N11">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D12">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E12">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F12">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J12">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K12">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L12">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M12">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N12">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D13">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E13">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F13">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J13">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K13">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L13">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M13">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N13">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D14">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E14">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F14">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J14">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K14">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L14">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M14">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N14">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D15">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E15">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F15">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J15">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K15">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L15">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M15">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N15">
+        <v>0.8965671057409064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D16">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E16">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F16">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J16">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K16">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L16">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M16">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N16">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D17">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E17">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F17">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J17">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K17">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L17">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M17">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N17">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D18">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E18">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F18">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J18">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K18">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L18">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M18">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N18">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D19">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E19">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F19">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J19">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K19">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L19">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M19">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N19">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D20">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E20">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F20">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J20">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K20">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L20">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M20">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N20">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D21">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E21">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F21">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J21">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K21">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L21">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M21">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N21">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D22">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E22">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F22">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J22">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K22">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L22">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M22">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N22">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D23">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E23">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F23">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J23">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K23">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L23">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M23">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N23">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D24">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E24">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F24">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J24">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K24">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L24">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M24">
-        <v>0.7961179051931425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N24">
+        <v>0.8965671057409064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147721317284903</v>
+        <v>0.8151615607611971</v>
       </c>
       <c r="D25">
-        <v>0.8221312357732159</v>
+        <v>0.8225153487998049</v>
       </c>
       <c r="E25">
-        <v>0.8465721375052375</v>
+        <v>0.8469064736339182</v>
       </c>
       <c r="F25">
-        <v>0.7808376971948869</v>
+        <v>0.7812393660330463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011517131836654</v>
+        <v>1.011568983462712</v>
       </c>
       <c r="J25">
-        <v>0.8435645810015193</v>
+        <v>0.8439338814805434</v>
       </c>
       <c r="K25">
-        <v>0.8364159717367619</v>
+        <v>0.8367914498198432</v>
       </c>
       <c r="L25">
-        <v>0.8603280568991818</v>
+        <v>0.8606554386692081</v>
       </c>
       <c r="M25">
-        <v>0.7961179051931425</v>
+        <v>0.7965092043312459</v>
+      </c>
+      <c r="N25">
+        <v>0.8965671057409064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7889448135903653</v>
+        <v>0.8524597302142357</v>
       </c>
       <c r="D2">
-        <v>0.7963415525540301</v>
+        <v>0.8628791582837062</v>
       </c>
       <c r="E2">
-        <v>0.8247174360332998</v>
+        <v>0.8764203684579798</v>
       </c>
       <c r="F2">
-        <v>0.7463989956076765</v>
+        <v>0.8732125134015889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.005769164416686</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.8199867115710024</v>
+        <v>0.8801690129950093</v>
       </c>
       <c r="K2">
-        <v>0.811620705517706</v>
+        <v>0.8766489406030072</v>
       </c>
       <c r="L2">
-        <v>0.8393130956490269</v>
+        <v>0.8899197709446359</v>
       </c>
       <c r="M2">
-        <v>0.7630555261038043</v>
+        <v>0.8867749721653815</v>
       </c>
       <c r="N2">
-        <v>0.8803503944877511</v>
+        <v>0.8814189539502592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8498746544438416</v>
+        <v>0.8892942256016425</v>
       </c>
       <c r="D3">
-        <v>0.8570790606575045</v>
+        <v>0.8983196810627919</v>
       </c>
       <c r="E3">
-        <v>0.8763438281993901</v>
+        <v>0.909773600973502</v>
       </c>
       <c r="F3">
-        <v>0.8263157555862094</v>
+        <v>0.9086619029688396</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.019192743137922</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.8755033063914565</v>
+        <v>0.9133365825085696</v>
       </c>
       <c r="K3">
-        <v>0.8699389423695846</v>
+        <v>0.9104431968067713</v>
       </c>
       <c r="L3">
-        <v>0.8888485268440247</v>
+        <v>0.92170782101698</v>
       </c>
       <c r="M3">
-        <v>0.8397882338291199</v>
+        <v>0.9206142270119776</v>
       </c>
       <c r="N3">
-        <v>0.9179582650192876</v>
+        <v>0.9146336252169021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8751514672432018</v>
+        <v>0.9094345044689807</v>
       </c>
       <c r="D4">
-        <v>0.8821877596858269</v>
+        <v>0.9177280148492738</v>
       </c>
       <c r="E4">
-        <v>0.8978202435642756</v>
+        <v>0.9280479362329472</v>
       </c>
       <c r="F4">
-        <v>0.8584509864033728</v>
+        <v>0.9280881781918525</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02467254902086</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.8983950503088395</v>
+        <v>0.9314774339438121</v>
       </c>
       <c r="K4">
-        <v>0.8939520674566815</v>
+        <v>0.9289324746493309</v>
       </c>
       <c r="L4">
-        <v>0.9093313080848774</v>
+        <v>0.9391000240834171</v>
       </c>
       <c r="M4">
-        <v>0.8706227092203449</v>
+        <v>0.9391396802891792</v>
       </c>
       <c r="N4">
-        <v>0.9334757313257895</v>
+        <v>0.9328002387419672</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8843423368119865</v>
+        <v>0.9172694544626812</v>
       </c>
       <c r="D5">
-        <v>0.8913056394343776</v>
+        <v>0.9252834336501631</v>
       </c>
       <c r="E5">
-        <v>0.9056377417924223</v>
+        <v>0.9351628194763293</v>
       </c>
       <c r="F5">
-        <v>0.8699980338629069</v>
+        <v>0.9356529203750455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026643093810785</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9066983591808174</v>
+        <v>0.9385341793603529</v>
       </c>
       <c r="K5">
-        <v>0.9026575320165782</v>
+        <v>0.9361260810406823</v>
       </c>
       <c r="L5">
-        <v>0.9167688965685414</v>
+        <v>0.9458661644703205</v>
       </c>
       <c r="M5">
-        <v>0.8816954192430541</v>
+        <v>0.9463494514238815</v>
       </c>
       <c r="N5">
-        <v>0.9391050157737534</v>
+        <v>0.9398670055464196</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8858213651051456</v>
+        <v>0.9185528728508308</v>
       </c>
       <c r="D6">
-        <v>0.8927723336074584</v>
+        <v>0.9265213282061566</v>
       </c>
       <c r="E6">
-        <v>0.9068961798107605</v>
+        <v>0.9363285643719055</v>
       </c>
       <c r="F6">
-        <v>0.87184943289327</v>
+        <v>0.9368924640547315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026958886629437</v>
+        <v>1.045370270238388</v>
       </c>
       <c r="J6">
-        <v>0.9080335219807497</v>
+        <v>0.9396900650758563</v>
       </c>
       <c r="K6">
-        <v>0.9040571342218912</v>
+        <v>0.9373044615983008</v>
       </c>
       <c r="L6">
-        <v>0.9179652537552714</v>
+        <v>0.9469744697579346</v>
       </c>
       <c r="M6">
-        <v>0.8834703404622274</v>
+        <v>0.9475305891637861</v>
       </c>
       <c r="N6">
-        <v>0.9400102227445866</v>
+        <v>0.9410245327522209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8752789201270973</v>
+        <v>0.9095414428649868</v>
       </c>
       <c r="D7">
-        <v>0.8823142434305397</v>
+        <v>0.9178311189452844</v>
       </c>
       <c r="E7">
-        <v>0.8979286207518762</v>
+        <v>0.9281450261505645</v>
       </c>
       <c r="F7">
-        <v>0.8586116110813187</v>
+        <v>0.9281914008668395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.024699966371695</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.8985102702952961</v>
+        <v>0.9315737539538428</v>
       </c>
       <c r="K7">
-        <v>0.8940728845458477</v>
+        <v>0.9290306574182376</v>
       </c>
       <c r="L7">
-        <v>0.9094344856238145</v>
+        <v>0.9391923758095668</v>
       </c>
       <c r="M7">
-        <v>0.8707767650996768</v>
+        <v>0.9392380759221312</v>
       </c>
       <c r="N7">
-        <v>0.9335538433943207</v>
+        <v>0.9328966955374605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8151615607611971</v>
+        <v>0.8658817868848274</v>
       </c>
       <c r="D8">
-        <v>0.8225153487998049</v>
+        <v>0.8757844069553506</v>
       </c>
       <c r="E8">
-        <v>0.8469064736339182</v>
+        <v>0.8885623037000305</v>
       </c>
       <c r="F8">
-        <v>0.7812393660330463</v>
+        <v>0.8861172387656281</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.011568983462712</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.8439338814805434</v>
+        <v>0.892251999694176</v>
       </c>
       <c r="K8">
-        <v>0.8367914498198432</v>
+        <v>0.8889588950647157</v>
       </c>
       <c r="L8">
-        <v>0.8606554386692081</v>
+        <v>0.9014981141051897</v>
       </c>
       <c r="M8">
-        <v>0.7965092043312459</v>
+        <v>0.8990980262917517</v>
       </c>
       <c r="N8">
-        <v>0.8965671057409064</v>
+        <v>0.8935190998764765</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D9">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E9">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F9">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K9">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L9">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M9">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N9">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D10">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E10">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F10">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J10">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K10">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L10">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M10">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N10">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D11">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E11">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F11">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J11">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K11">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L11">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M11">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N11">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D12">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E12">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F12">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J12">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K12">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L12">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M12">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N12">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D13">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E13">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F13">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J13">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K13">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L13">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M13">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N13">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D14">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E14">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F14">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J14">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K14">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L14">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M14">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N14">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D15">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E15">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F15">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J15">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K15">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L15">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M15">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N15">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D16">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E16">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F16">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J16">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K16">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L16">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M16">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N16">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D17">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E17">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F17">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J17">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K17">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L17">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M17">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N17">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D18">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E18">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F18">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J18">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K18">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L18">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M18">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N18">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D19">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E19">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F19">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J19">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K19">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L19">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M19">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N19">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D20">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E20">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F20">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J20">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K20">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L20">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M20">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N20">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D21">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E21">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F21">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J21">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K21">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L21">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M21">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N21">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D22">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E22">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F22">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J22">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K22">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L22">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M22">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N22">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D23">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E23">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F23">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J23">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K23">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L23">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M23">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N23">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D24">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E24">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F24">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J24">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K24">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L24">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M24">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N24">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8151615607611971</v>
+        <v>0.7071511209643061</v>
       </c>
       <c r="D25">
-        <v>0.8225153487998049</v>
+        <v>0.7240466289995032</v>
       </c>
       <c r="E25">
-        <v>0.8469064736339182</v>
+        <v>0.7462790042391617</v>
       </c>
       <c r="F25">
-        <v>0.7812393660330463</v>
+        <v>0.734738924911016</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011568983462712</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J25">
-        <v>0.8439338814805434</v>
+        <v>0.7499870977992217</v>
       </c>
       <c r="K25">
-        <v>0.8367914498198432</v>
+        <v>0.7440668669446352</v>
       </c>
       <c r="L25">
-        <v>0.8606554386692081</v>
+        <v>0.7654736949436673</v>
       </c>
       <c r="M25">
-        <v>0.7965092043312459</v>
+        <v>0.754353356687105</v>
       </c>
       <c r="N25">
-        <v>0.8965671057409064</v>
+        <v>0.7510521655028192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8524597302142357</v>
+        <v>0.9908200180408741</v>
       </c>
       <c r="D2">
-        <v>0.8628791582837062</v>
+        <v>0.9992925165611304</v>
       </c>
       <c r="E2">
-        <v>0.8764203684579798</v>
+        <v>0.9984721896188317</v>
       </c>
       <c r="F2">
-        <v>0.8732125134015889</v>
+        <v>0.9990531155532717</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.040193253100951</v>
       </c>
       <c r="J2">
-        <v>0.8801690129950093</v>
+        <v>1.013278811069725</v>
       </c>
       <c r="K2">
-        <v>0.8766489406030072</v>
+        <v>1.010761716558592</v>
       </c>
       <c r="L2">
-        <v>0.8899197709446359</v>
+        <v>1.009952850382953</v>
       </c>
       <c r="M2">
-        <v>0.8867749721653815</v>
+        <v>1.010525657760753</v>
       </c>
       <c r="N2">
-        <v>0.8814189539502592</v>
+        <v>1.014717783206137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8892942256016425</v>
+        <v>0.9957008547104458</v>
       </c>
       <c r="D3">
-        <v>0.8983196810627919</v>
+        <v>1.003516244655422</v>
       </c>
       <c r="E3">
-        <v>0.909773600973502</v>
+        <v>1.002386928659116</v>
       </c>
       <c r="F3">
-        <v>0.9086619029688396</v>
+        <v>1.004564092030758</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.041285453709054</v>
       </c>
       <c r="J3">
-        <v>0.9133365825085696</v>
+        <v>1.016309408853496</v>
       </c>
       <c r="K3">
-        <v>0.9104431968067713</v>
+        <v>1.014104331312311</v>
       </c>
       <c r="L3">
-        <v>0.92170782101698</v>
+        <v>1.012989359120772</v>
       </c>
       <c r="M3">
-        <v>0.9206142270119776</v>
+        <v>1.015138905645052</v>
       </c>
       <c r="N3">
-        <v>0.9146336252169021</v>
+        <v>1.017752684786386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9094345044689807</v>
+        <v>0.9987893439251524</v>
       </c>
       <c r="D4">
-        <v>0.9177280148492738</v>
+        <v>1.006194148063431</v>
       </c>
       <c r="E4">
-        <v>0.9280479362329472</v>
+        <v>1.004870356467253</v>
       </c>
       <c r="F4">
-        <v>0.9280881781918525</v>
+        <v>1.00805220671006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.041964565443526</v>
       </c>
       <c r="J4">
-        <v>0.9314774339438121</v>
+        <v>1.018224069190043</v>
       </c>
       <c r="K4">
-        <v>0.9289324746493309</v>
+        <v>1.016218385635106</v>
       </c>
       <c r="L4">
-        <v>0.9391000240834171</v>
+        <v>1.01491035384188</v>
       </c>
       <c r="M4">
-        <v>0.9391396802891792</v>
+        <v>1.01805441049822</v>
       </c>
       <c r="N4">
-        <v>0.9328002387419672</v>
+        <v>1.019670064160226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9172694544626812</v>
+        <v>1.000071700528706</v>
       </c>
       <c r="D5">
-        <v>0.9252834336501631</v>
+        <v>1.007307235636983</v>
       </c>
       <c r="E5">
-        <v>0.9351628194763293</v>
+        <v>1.005902940208358</v>
       </c>
       <c r="F5">
-        <v>0.9356529203750455</v>
+        <v>1.00950073283176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.042243612750572</v>
       </c>
       <c r="J5">
-        <v>0.9385341793603529</v>
+        <v>1.019018280769236</v>
       </c>
       <c r="K5">
-        <v>0.9361260810406823</v>
+        <v>1.01709585331703</v>
       </c>
       <c r="L5">
-        <v>0.9458661644703205</v>
+        <v>1.015707814119714</v>
       </c>
       <c r="M5">
-        <v>0.9463494514238815</v>
+        <v>1.019264070163741</v>
       </c>
       <c r="N5">
-        <v>0.9398670055464196</v>
+        <v>1.020465403610959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9185528728508308</v>
+        <v>1.000286091260078</v>
       </c>
       <c r="D6">
-        <v>0.9265213282061566</v>
+        <v>1.007493396933241</v>
       </c>
       <c r="E6">
-        <v>0.9363285643719055</v>
+        <v>1.006075656573141</v>
       </c>
       <c r="F6">
-        <v>0.9368924640547315</v>
+        <v>1.009742919736184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045370270238388</v>
+        <v>1.042290092191069</v>
       </c>
       <c r="J6">
-        <v>0.9396900650758563</v>
+        <v>1.019151014966435</v>
       </c>
       <c r="K6">
-        <v>0.9373044615983008</v>
+        <v>1.017242534045442</v>
       </c>
       <c r="L6">
-        <v>0.9469744697579346</v>
+        <v>1.015841127716011</v>
       </c>
       <c r="M6">
-        <v>0.9475305891637861</v>
+        <v>1.019466255873579</v>
       </c>
       <c r="N6">
-        <v>0.9410245327522209</v>
+        <v>1.020598326305943</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9095414428649868</v>
+        <v>0.9988065410442811</v>
       </c>
       <c r="D7">
-        <v>0.9178311189452844</v>
+        <v>1.006209070471671</v>
       </c>
       <c r="E7">
-        <v>0.9281450261505645</v>
+        <v>1.00488419832182</v>
       </c>
       <c r="F7">
-        <v>0.9281914008668395</v>
+        <v>1.008071631256609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.041968319231068</v>
       </c>
       <c r="J7">
-        <v>0.9315737539538428</v>
+        <v>1.018234723082823</v>
       </c>
       <c r="K7">
-        <v>0.9290306574182376</v>
+        <v>1.016230154197909</v>
       </c>
       <c r="L7">
-        <v>0.9391923758095668</v>
+        <v>1.014921048861627</v>
       </c>
       <c r="M7">
-        <v>0.9392380759221312</v>
+        <v>1.018070636154211</v>
       </c>
       <c r="N7">
-        <v>0.9328966955374605</v>
+        <v>1.019680733182756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8658817868848274</v>
+        <v>0.9924843634234182</v>
       </c>
       <c r="D8">
-        <v>0.8757844069553506</v>
+        <v>1.000731667568021</v>
       </c>
       <c r="E8">
-        <v>0.8885623037000305</v>
+        <v>0.9998057522707117</v>
       </c>
       <c r="F8">
-        <v>0.8861172387656281</v>
+        <v>1.000932169084348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.040568184544871</v>
       </c>
       <c r="J8">
-        <v>0.892251999694176</v>
+        <v>1.014312847512423</v>
       </c>
       <c r="K8">
-        <v>0.8889588950647157</v>
+        <v>1.011901737064685</v>
       </c>
       <c r="L8">
-        <v>0.9014981141051897</v>
+        <v>1.010988355408003</v>
       </c>
       <c r="M8">
-        <v>0.8990980262917517</v>
+        <v>1.012099528335872</v>
       </c>
       <c r="N8">
-        <v>0.8935190998764765</v>
+        <v>1.015753288099201</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7071511209643061</v>
+        <v>0.9807785062042732</v>
       </c>
       <c r="D9">
-        <v>0.7240466289995032</v>
+        <v>0.9906338161634716</v>
       </c>
       <c r="E9">
-        <v>0.7462790042391617</v>
+        <v>0.9904553219999586</v>
       </c>
       <c r="F9">
-        <v>0.734738924911016</v>
+        <v>0.9877186196056664</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.037881780316769</v>
       </c>
       <c r="J9">
-        <v>0.7499870977992217</v>
+        <v>1.007028773903111</v>
       </c>
       <c r="K9">
-        <v>0.7440668669446352</v>
+        <v>1.003880703270055</v>
       </c>
       <c r="L9">
-        <v>0.7654736949436673</v>
+        <v>1.003705176684725</v>
       </c>
       <c r="M9">
-        <v>0.754353356687105</v>
+        <v>1.001014146779397</v>
       </c>
       <c r="N9">
-        <v>0.7510521655028192</v>
+        <v>1.008458870269868</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7071511209643061</v>
+        <v>0.9725474282658403</v>
       </c>
       <c r="D10">
-        <v>0.7240466289995032</v>
+        <v>0.9835664475683431</v>
       </c>
       <c r="E10">
-        <v>0.7462790042391617</v>
+        <v>0.9839199942755781</v>
       </c>
       <c r="F10">
-        <v>0.734738924911016</v>
+        <v>0.9784287957244862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044923609578788</v>
+        <v>1.035931878886408</v>
       </c>
       <c r="J10">
-        <v>0.7499870977992217</v>
+        <v>1.001894228947044</v>
       </c>
       <c r="K10">
-        <v>0.7440668669446352</v>
+        <v>0.9982388923800251</v>
       </c>
       <c r="L10">
-        <v>0.7654736949436673</v>
+        <v>0.9985857770723099</v>
       </c>
       <c r="M10">
-        <v>0.754353356687105</v>
+        <v>0.9931987622672224</v>
       </c>
       <c r="N10">
-        <v>0.7510521655028192</v>
+        <v>1.003317033671023</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7071511209643061</v>
+        <v>0.9688703820811938</v>
       </c>
       <c r="D11">
-        <v>0.7240466289995032</v>
+        <v>0.980417893910319</v>
       </c>
       <c r="E11">
-        <v>0.7462790042391617</v>
+        <v>0.9810107926683952</v>
       </c>
       <c r="F11">
-        <v>0.734738924911016</v>
+        <v>0.9742785139475468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044923609578788</v>
+        <v>1.035046987363114</v>
       </c>
       <c r="J11">
-        <v>0.7499870977992217</v>
+        <v>0.9995980860451726</v>
       </c>
       <c r="K11">
-        <v>0.7440668669446352</v>
+        <v>0.9957187960002013</v>
       </c>
       <c r="L11">
-        <v>0.7654736949436673</v>
+        <v>0.9962999280843507</v>
       </c>
       <c r="M11">
-        <v>0.754353356687105</v>
+        <v>0.9897023669679299</v>
       </c>
       <c r="N11">
-        <v>0.7510521655028192</v>
+        <v>1.00101762998286</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7071511209643061</v>
+        <v>0.9674865152869737</v>
       </c>
       <c r="D12">
-        <v>0.7240466289995032</v>
+        <v>0.9792342961115716</v>
       </c>
       <c r="E12">
-        <v>0.7462790042391617</v>
+        <v>0.979917539678078</v>
       </c>
       <c r="F12">
-        <v>0.734738924911016</v>
+        <v>0.9727164470277471</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044923609578788</v>
+        <v>1.034711936759484</v>
       </c>
       <c r="J12">
-        <v>0.7499870977992217</v>
+        <v>0.998733619808106</v>
       </c>
       <c r="K12">
-        <v>0.7440668669446352</v>
+        <v>0.9947704490510787</v>
       </c>
       <c r="L12">
-        <v>0.7654736949436673</v>
+        <v>0.9954398738573449</v>
       </c>
       <c r="M12">
-        <v>0.754353356687105</v>
+        <v>0.9883857131328649</v>
       </c>
       <c r="N12">
-        <v>0.7510521655028192</v>
+        <v>1.000151936104581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7071511209643061</v>
+        <v>0.9677841944666588</v>
       </c>
       <c r="D13">
-        <v>0.7240466289995032</v>
+        <v>0.9794888329989513</v>
       </c>
       <c r="E13">
-        <v>0.7462790042391617</v>
+        <v>0.980152630651121</v>
       </c>
       <c r="F13">
-        <v>0.734738924911016</v>
+        <v>0.9730524636016067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044923609578788</v>
+        <v>1.03478409869821</v>
       </c>
       <c r="J13">
-        <v>0.7499870977992217</v>
+        <v>0.9989195853177929</v>
       </c>
       <c r="K13">
-        <v>0.7440668669446352</v>
+        <v>0.9949744394895419</v>
       </c>
       <c r="L13">
-        <v>0.7654736949436673</v>
+        <v>0.9956248658854981</v>
       </c>
       <c r="M13">
-        <v>0.754353356687105</v>
+        <v>0.9886689696738958</v>
       </c>
       <c r="N13">
-        <v>0.7510521655028192</v>
+        <v>1.000338165706622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7071511209643061</v>
+        <v>0.9687563659637284</v>
       </c>
       <c r="D14">
-        <v>0.7240466289995032</v>
+        <v>0.9803203496059357</v>
       </c>
       <c r="E14">
-        <v>0.7462790042391617</v>
+        <v>0.9809206863924732</v>
       </c>
       <c r="F14">
-        <v>0.734738924911016</v>
+        <v>0.9741498183161117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044923609578788</v>
+        <v>1.035019423391035</v>
       </c>
       <c r="J14">
-        <v>0.7499870977992217</v>
+        <v>0.99952686898768</v>
       </c>
       <c r="K14">
-        <v>0.7440668669446352</v>
+        <v>0.9956406597920338</v>
       </c>
       <c r="L14">
-        <v>0.7654736949436673</v>
+        <v>0.9962290635557713</v>
       </c>
       <c r="M14">
-        <v>0.754353356687105</v>
+        <v>0.9895939043545183</v>
       </c>
       <c r="N14">
-        <v>0.7510521655028192</v>
+        <v>1.000946311788977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7071511209643061</v>
+        <v>0.9693529275150148</v>
       </c>
       <c r="D15">
-        <v>0.7240466289995032</v>
+        <v>0.9808307826336029</v>
       </c>
       <c r="E15">
-        <v>0.7462790042391617</v>
+        <v>0.9813922125777182</v>
       </c>
       <c r="F15">
-        <v>0.734738924911016</v>
+        <v>0.9748231825616828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044923609578788</v>
+        <v>1.035163563247985</v>
       </c>
       <c r="J15">
-        <v>0.7499870977992217</v>
+        <v>0.9998994827401455</v>
       </c>
       <c r="K15">
-        <v>0.7440668669446352</v>
+        <v>0.9960494928408828</v>
       </c>
       <c r="L15">
-        <v>0.7654736949436673</v>
+        <v>0.9965998547455326</v>
       </c>
       <c r="M15">
-        <v>0.754353356687105</v>
+        <v>0.9901613768511247</v>
       </c>
       <c r="N15">
-        <v>0.7510521655028192</v>
+        <v>1.00131945469571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7071511209643061</v>
+        <v>0.9727889920420247</v>
       </c>
       <c r="D16">
-        <v>0.7240466289995032</v>
+        <v>0.9837734776072735</v>
       </c>
       <c r="E16">
-        <v>0.7462790042391617</v>
+        <v>0.9841113359412521</v>
       </c>
       <c r="F16">
-        <v>0.734738924911016</v>
+        <v>0.978701438565627</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044923609578788</v>
+        <v>1.03598972912508</v>
       </c>
       <c r="J16">
-        <v>0.7499870977992217</v>
+        <v>1.002045028753678</v>
       </c>
       <c r="K16">
-        <v>0.7440668669446352</v>
+        <v>0.9984044605633668</v>
       </c>
       <c r="L16">
-        <v>0.7654736949436673</v>
+        <v>0.9987359746720258</v>
       </c>
       <c r="M16">
-        <v>0.754353356687105</v>
+        <v>0.9934283517328641</v>
       </c>
       <c r="N16">
-        <v>0.7510521655028192</v>
+        <v>1.00346804763068</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7071511209643061</v>
+        <v>0.9749133729039068</v>
       </c>
       <c r="D17">
-        <v>0.7240466289995032</v>
+        <v>0.9855951481219661</v>
       </c>
       <c r="E17">
-        <v>0.7462790042391617</v>
+        <v>0.9857952301726849</v>
       </c>
       <c r="F17">
-        <v>0.734738924911016</v>
+        <v>0.981099101208411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044923609578788</v>
+        <v>1.036496917222791</v>
       </c>
       <c r="J17">
-        <v>0.7499870977992217</v>
+        <v>1.003370938730897</v>
       </c>
       <c r="K17">
-        <v>0.7440668669446352</v>
+        <v>0.9998605503188919</v>
       </c>
       <c r="L17">
-        <v>0.7654736949436673</v>
+        <v>1.000056990452472</v>
       </c>
       <c r="M17">
-        <v>0.754353356687105</v>
+        <v>0.9954468514440159</v>
       </c>
       <c r="N17">
-        <v>0.7510521655028192</v>
+        <v>1.00479584055215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7071511209643061</v>
+        <v>0.9761416692718596</v>
       </c>
       <c r="D18">
-        <v>0.7240466289995032</v>
+        <v>0.9866492327763753</v>
       </c>
       <c r="E18">
-        <v>0.7462790042391617</v>
+        <v>0.9867698116907047</v>
       </c>
       <c r="F18">
-        <v>0.734738924911016</v>
+        <v>0.9824853853495015</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044923609578788</v>
+        <v>1.036788856077973</v>
       </c>
       <c r="J18">
-        <v>0.7499870977992217</v>
+        <v>1.004137335787026</v>
       </c>
       <c r="K18">
-        <v>0.7440668669446352</v>
+        <v>1.000702467177835</v>
       </c>
       <c r="L18">
-        <v>0.7654736949436673</v>
+        <v>1.00082089129826</v>
       </c>
       <c r="M18">
-        <v>0.754353356687105</v>
+        <v>0.996613451285596</v>
       </c>
       <c r="N18">
-        <v>0.7510521655028192</v>
+        <v>1.005563325980006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7071511209643061</v>
+        <v>0.9765586828844651</v>
       </c>
       <c r="D19">
-        <v>0.7240466289995032</v>
+        <v>0.9870072362528834</v>
       </c>
       <c r="E19">
-        <v>0.7462790042391617</v>
+        <v>0.9871008498062918</v>
       </c>
       <c r="F19">
-        <v>0.734738924911016</v>
+        <v>0.9829560347337527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044923609578788</v>
+        <v>1.036887746717364</v>
       </c>
       <c r="J19">
-        <v>0.7499870977992217</v>
+        <v>1.004397491155903</v>
       </c>
       <c r="K19">
-        <v>0.7440668669446352</v>
+        <v>1.000988304382509</v>
       </c>
       <c r="L19">
-        <v>0.7654736949436673</v>
+        <v>1.001080255549033</v>
       </c>
       <c r="M19">
-        <v>0.754353356687105</v>
+        <v>0.997009438108136</v>
       </c>
       <c r="N19">
-        <v>0.7510521655028192</v>
+        <v>1.005823850799346</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7071511209643061</v>
+        <v>0.9746865735363942</v>
       </c>
       <c r="D20">
-        <v>0.7240466289995032</v>
+        <v>0.9854005813552775</v>
       </c>
       <c r="E20">
-        <v>0.7462790042391617</v>
+        <v>0.9856153559725629</v>
       </c>
       <c r="F20">
-        <v>0.734738924911016</v>
+        <v>0.9808431287934523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044923609578788</v>
+        <v>1.036442905518588</v>
       </c>
       <c r="J20">
-        <v>0.7499870977992217</v>
+        <v>1.003229407907413</v>
       </c>
       <c r="K20">
-        <v>0.7440668669446352</v>
+        <v>0.9997050953717027</v>
       </c>
       <c r="L20">
-        <v>0.7654736949436673</v>
+        <v>0.9999159474618483</v>
       </c>
       <c r="M20">
-        <v>0.754353356687105</v>
+        <v>0.9952314055951301</v>
       </c>
       <c r="N20">
-        <v>0.7510521655028192</v>
+        <v>1.004654108738663</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7071511209643061</v>
+        <v>0.9684705930355921</v>
       </c>
       <c r="D21">
-        <v>0.7240466289995032</v>
+        <v>0.9800758843583964</v>
       </c>
       <c r="E21">
-        <v>0.7462790042391617</v>
+        <v>0.9806948683048535</v>
       </c>
       <c r="F21">
-        <v>0.734738924911016</v>
+        <v>0.9738272505187039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044923609578788</v>
+        <v>1.034950304025979</v>
       </c>
       <c r="J21">
-        <v>0.7499870977992217</v>
+        <v>0.9993483639819297</v>
       </c>
       <c r="K21">
-        <v>0.7440668669446352</v>
+        <v>0.9954448189883978</v>
       </c>
       <c r="L21">
-        <v>0.7654736949436673</v>
+        <v>0.9960514508264254</v>
       </c>
       <c r="M21">
-        <v>0.754353356687105</v>
+        <v>0.9893220383221617</v>
       </c>
       <c r="N21">
-        <v>0.7510521655028192</v>
+        <v>1.000767553285644</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7071511209643061</v>
+        <v>0.964457336090852</v>
       </c>
       <c r="D22">
-        <v>0.7240466289995032</v>
+        <v>0.9766460941512367</v>
       </c>
       <c r="E22">
-        <v>0.7462790042391617</v>
+        <v>0.9775275956274946</v>
       </c>
       <c r="F22">
-        <v>0.734738924911016</v>
+        <v>0.9692969559058308</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044923609578788</v>
+        <v>1.033974886048538</v>
       </c>
       <c r="J22">
-        <v>0.7499870977992217</v>
+        <v>0.9968408681147515</v>
       </c>
       <c r="K22">
-        <v>0.7440668669446352</v>
+        <v>0.9926948405415538</v>
       </c>
       <c r="L22">
-        <v>0.7654736949436673</v>
+        <v>0.993557778571436</v>
       </c>
       <c r="M22">
-        <v>0.754353356687105</v>
+        <v>0.9855022102176502</v>
       </c>
       <c r="N22">
-        <v>0.7510521655028192</v>
+        <v>0.9982564964867201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7071511209643061</v>
+        <v>0.9665951793898442</v>
       </c>
       <c r="D23">
-        <v>0.7240466289995032</v>
+        <v>0.9784723469771948</v>
       </c>
       <c r="E23">
-        <v>0.7462790042391617</v>
+        <v>0.9792138568026798</v>
       </c>
       <c r="F23">
-        <v>0.734738924911016</v>
+        <v>0.9717102992637825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044923609578788</v>
+        <v>1.034495572041128</v>
       </c>
       <c r="J23">
-        <v>0.7499870977992217</v>
+        <v>0.9981767457909259</v>
       </c>
       <c r="K23">
-        <v>0.7440668669446352</v>
+        <v>0.9941596630826199</v>
       </c>
       <c r="L23">
-        <v>0.7654736949436673</v>
+        <v>0.9948859941797652</v>
       </c>
       <c r="M23">
-        <v>0.754353356687105</v>
+        <v>0.9875374476200387</v>
       </c>
       <c r="N23">
-        <v>0.7510521655028192</v>
+        <v>0.9995942712624222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7071511209643061</v>
+        <v>0.9747890877627496</v>
       </c>
       <c r="D24">
-        <v>0.7240466289995032</v>
+        <v>0.9854885238018134</v>
       </c>
       <c r="E24">
-        <v>0.7462790042391617</v>
+        <v>0.9856966568314787</v>
       </c>
       <c r="F24">
-        <v>0.734738924911016</v>
+        <v>0.9809588294158071</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044923609578788</v>
+        <v>1.036467323101015</v>
       </c>
       <c r="J24">
-        <v>0.7499870977992217</v>
+        <v>1.003293381130136</v>
       </c>
       <c r="K24">
-        <v>0.7440668669446352</v>
+        <v>0.9997753615758765</v>
       </c>
       <c r="L24">
-        <v>0.7654736949436673</v>
+        <v>0.9999796991481134</v>
       </c>
       <c r="M24">
-        <v>0.754353356687105</v>
+        <v>0.9953287894639185</v>
       </c>
       <c r="N24">
-        <v>0.7510521655028192</v>
+        <v>1.0047181728107</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7071511209643061</v>
+        <v>0.9838763788808617</v>
       </c>
       <c r="D25">
-        <v>0.7240466289995032</v>
+        <v>0.9933007116884395</v>
       </c>
       <c r="E25">
-        <v>0.7462790042391617</v>
+        <v>0.9929233454695073</v>
       </c>
       <c r="F25">
-        <v>0.734738924911016</v>
+        <v>0.9912150703527275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044923609578788</v>
+        <v>1.038603395122182</v>
       </c>
       <c r="J25">
-        <v>0.7499870977992217</v>
+        <v>1.008958823542491</v>
       </c>
       <c r="K25">
-        <v>0.7440668669446352</v>
+        <v>1.006003923390383</v>
       </c>
       <c r="L25">
-        <v>0.7654736949436673</v>
+        <v>1.005632519791873</v>
       </c>
       <c r="M25">
-        <v>0.754353356687105</v>
+        <v>1.003951309235605</v>
       </c>
       <c r="N25">
-        <v>0.7510521655028192</v>
+        <v>1.010391660801115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9908200180408741</v>
+        <v>1.025617356788274</v>
       </c>
       <c r="D2">
-        <v>0.9992925165611304</v>
+        <v>1.028261897521059</v>
       </c>
       <c r="E2">
-        <v>0.9984721896188317</v>
+        <v>1.025942288655465</v>
       </c>
       <c r="F2">
-        <v>0.9990531155532717</v>
+        <v>1.035578244822902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040193253100951</v>
+        <v>1.031350482319003</v>
       </c>
       <c r="J2">
-        <v>1.013278811069725</v>
+        <v>1.030785377314057</v>
       </c>
       <c r="K2">
-        <v>1.010761716558592</v>
+        <v>1.031079227073046</v>
       </c>
       <c r="L2">
-        <v>1.009952850382953</v>
+        <v>1.028766384590913</v>
       </c>
       <c r="M2">
-        <v>1.010525657760753</v>
+        <v>1.038374448093185</v>
       </c>
       <c r="N2">
-        <v>1.014717783206137</v>
+        <v>1.032249210782583</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9957008547104458</v>
+        <v>1.026638059890754</v>
       </c>
       <c r="D3">
-        <v>1.003516244655422</v>
+        <v>1.029195495130404</v>
       </c>
       <c r="E3">
-        <v>1.002386928659116</v>
+        <v>1.026810832799274</v>
       </c>
       <c r="F3">
-        <v>1.004564092030758</v>
+        <v>1.036793044735852</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041285453709054</v>
+        <v>1.031508602293804</v>
       </c>
       <c r="J3">
-        <v>1.016309408853496</v>
+        <v>1.031445123375345</v>
       </c>
       <c r="K3">
-        <v>1.014104331312311</v>
+        <v>1.031820383910679</v>
       </c>
       <c r="L3">
-        <v>1.012989359120772</v>
+        <v>1.029442172498026</v>
       </c>
       <c r="M3">
-        <v>1.015138905645052</v>
+        <v>1.039397594799872</v>
       </c>
       <c r="N3">
-        <v>1.017752684786386</v>
+        <v>1.032909893758947</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9987893439251524</v>
+        <v>1.027298645951825</v>
       </c>
       <c r="D4">
-        <v>1.006194148063431</v>
+        <v>1.029800006832352</v>
       </c>
       <c r="E4">
-        <v>1.004870356467253</v>
+        <v>1.027373315582281</v>
       </c>
       <c r="F4">
-        <v>1.00805220671006</v>
+        <v>1.037579330063497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041964565443526</v>
+        <v>1.03160943914771</v>
       </c>
       <c r="J4">
-        <v>1.018224069190043</v>
+        <v>1.031871584866223</v>
       </c>
       <c r="K4">
-        <v>1.016218385635106</v>
+        <v>1.032299752458712</v>
       </c>
       <c r="L4">
-        <v>1.01491035384188</v>
+        <v>1.029879293839758</v>
       </c>
       <c r="M4">
-        <v>1.01805441049822</v>
+        <v>1.040059307347676</v>
       </c>
       <c r="N4">
-        <v>1.019670064160226</v>
+        <v>1.033336960874057</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000071700528706</v>
+        <v>1.027576385785985</v>
       </c>
       <c r="D5">
-        <v>1.007307235636983</v>
+        <v>1.030054241626095</v>
       </c>
       <c r="E5">
-        <v>1.005902940208358</v>
+        <v>1.027609896860112</v>
       </c>
       <c r="F5">
-        <v>1.00950073283176</v>
+        <v>1.037909939863129</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042243612750572</v>
+        <v>1.031651477048833</v>
       </c>
       <c r="J5">
-        <v>1.019018280769236</v>
+        <v>1.032050764047642</v>
       </c>
       <c r="K5">
-        <v>1.01709585331703</v>
+        <v>1.032501228495845</v>
       </c>
       <c r="L5">
-        <v>1.015707814119714</v>
+        <v>1.030063021285689</v>
       </c>
       <c r="M5">
-        <v>1.019264070163741</v>
+        <v>1.040337412368454</v>
       </c>
       <c r="N5">
-        <v>1.020465403610959</v>
+        <v>1.033516394510467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000286091260078</v>
+        <v>1.027623021254428</v>
       </c>
       <c r="D6">
-        <v>1.007493396933241</v>
+        <v>1.030096934504152</v>
       </c>
       <c r="E6">
-        <v>1.006075656573141</v>
+        <v>1.027649626537018</v>
       </c>
       <c r="F6">
-        <v>1.009742919736184</v>
+        <v>1.037965453976081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042290092191069</v>
+        <v>1.03165851463704</v>
       </c>
       <c r="J6">
-        <v>1.019151014966435</v>
+        <v>1.03208084284141</v>
       </c>
       <c r="K6">
-        <v>1.017242534045442</v>
+        <v>1.032535054237493</v>
       </c>
       <c r="L6">
-        <v>1.015841127716011</v>
+        <v>1.030093867671102</v>
       </c>
       <c r="M6">
-        <v>1.019466255873579</v>
+        <v>1.040384102810893</v>
       </c>
       <c r="N6">
-        <v>1.020598326305943</v>
+        <v>1.033546516019572</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9988065410442811</v>
+        <v>1.027302357009302</v>
       </c>
       <c r="D7">
-        <v>1.006209070471671</v>
+        <v>1.029803403545333</v>
       </c>
       <c r="E7">
-        <v>1.00488419832182</v>
+        <v>1.027376476347602</v>
       </c>
       <c r="F7">
-        <v>1.008071631256609</v>
+        <v>1.037583747469032</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041968319231068</v>
+        <v>1.031610002251127</v>
       </c>
       <c r="J7">
-        <v>1.018234723082823</v>
+        <v>1.031873979481064</v>
       </c>
       <c r="K7">
-        <v>1.016230154197909</v>
+        <v>1.032302444790254</v>
       </c>
       <c r="L7">
-        <v>1.014921048861627</v>
+        <v>1.02988174896613</v>
       </c>
       <c r="M7">
-        <v>1.018070636154211</v>
+        <v>1.040063023710115</v>
       </c>
       <c r="N7">
-        <v>1.019680733182756</v>
+        <v>1.033339358889527</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9924843634234182</v>
+        <v>1.025962282751718</v>
       </c>
       <c r="D8">
-        <v>1.000731667568021</v>
+        <v>1.02857732569412</v>
       </c>
       <c r="E8">
-        <v>0.9998057522707117</v>
+        <v>1.026235718166729</v>
       </c>
       <c r="F8">
-        <v>1.000932169084348</v>
+        <v>1.035988745257806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040568184544871</v>
+        <v>1.031404225458264</v>
       </c>
       <c r="J8">
-        <v>1.014312847512423</v>
+        <v>1.031008432167049</v>
       </c>
       <c r="K8">
-        <v>1.011901737064685</v>
+        <v>1.031329747662286</v>
       </c>
       <c r="L8">
-        <v>1.010988355408003</v>
+        <v>1.028994802887146</v>
       </c>
       <c r="M8">
-        <v>1.012099528335872</v>
+        <v>1.03872029431021</v>
       </c>
       <c r="N8">
-        <v>1.015753288099201</v>
+        <v>1.032472582399046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9807785062042732</v>
+        <v>1.02360184008755</v>
       </c>
       <c r="D9">
-        <v>0.9906338161634716</v>
+        <v>1.02641999266132</v>
       </c>
       <c r="E9">
-        <v>0.9904553219999586</v>
+        <v>1.024229232861523</v>
       </c>
       <c r="F9">
-        <v>0.9877186196056664</v>
+        <v>1.033179864880948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037881780316769</v>
+        <v>1.031030315915033</v>
       </c>
       <c r="J9">
-        <v>1.007028773903111</v>
+        <v>1.029479882712239</v>
       </c>
       <c r="K9">
-        <v>1.003880703270055</v>
+        <v>1.029614141657628</v>
       </c>
       <c r="L9">
-        <v>1.003705176684725</v>
+        <v>1.027430692644398</v>
       </c>
       <c r="M9">
-        <v>1.001014146779397</v>
+        <v>1.036351669830141</v>
       </c>
       <c r="N9">
-        <v>1.008458870269868</v>
+        <v>1.030941862228684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9725474282658403</v>
+        <v>1.022028837579743</v>
       </c>
       <c r="D10">
-        <v>0.9835664475683431</v>
+        <v>1.024983928846826</v>
       </c>
       <c r="E10">
-        <v>0.9839199942755781</v>
+        <v>1.022894080607884</v>
       </c>
       <c r="F10">
-        <v>0.9784287957244862</v>
+        <v>1.031308383342866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035931878886408</v>
+        <v>1.030773455160596</v>
       </c>
       <c r="J10">
-        <v>1.001894228947044</v>
+        <v>1.028458616018615</v>
       </c>
       <c r="K10">
-        <v>0.9982388923800251</v>
+        <v>1.028469353853761</v>
       </c>
       <c r="L10">
-        <v>0.9985857770723099</v>
+        <v>1.026387168041775</v>
       </c>
       <c r="M10">
-        <v>0.9931987622672224</v>
+        <v>1.034770828686702</v>
       </c>
       <c r="N10">
-        <v>1.003317033671023</v>
+        <v>1.029919145219213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688703820811938</v>
+        <v>1.021347856375988</v>
       </c>
       <c r="D11">
-        <v>0.980417893910319</v>
+        <v>1.024362613778711</v>
       </c>
       <c r="E11">
-        <v>0.9810107926683952</v>
+        <v>1.022316545287498</v>
       </c>
       <c r="F11">
-        <v>0.9742785139475468</v>
+        <v>1.030498261478656</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035046987363114</v>
+        <v>1.030660434315639</v>
       </c>
       <c r="J11">
-        <v>0.9995980860451726</v>
+        <v>1.028015868947512</v>
       </c>
       <c r="K11">
-        <v>0.9957187960002013</v>
+        <v>1.027973402078396</v>
       </c>
       <c r="L11">
-        <v>0.9962999280843507</v>
+        <v>1.025935128131649</v>
       </c>
       <c r="M11">
-        <v>0.9897023669679299</v>
+        <v>1.034085881446444</v>
       </c>
       <c r="N11">
-        <v>1.00101762998286</v>
+        <v>1.029475769396486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9674865152869737</v>
+        <v>1.021094930256784</v>
       </c>
       <c r="D12">
-        <v>0.9792342961115716</v>
+        <v>1.024131906604081</v>
       </c>
       <c r="E12">
-        <v>0.979917539678078</v>
+        <v>1.022102112693703</v>
       </c>
       <c r="F12">
-        <v>0.9727164470277471</v>
+        <v>1.030197381369558</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034711936759484</v>
+        <v>1.030618183287957</v>
       </c>
       <c r="J12">
-        <v>0.998733619808106</v>
+        <v>1.02785133318434</v>
       </c>
       <c r="K12">
-        <v>0.9947704490510787</v>
+        <v>1.027789145949684</v>
       </c>
       <c r="L12">
-        <v>0.9954398738573449</v>
+        <v>1.025767192540968</v>
       </c>
       <c r="M12">
-        <v>0.9883857131328649</v>
+        <v>1.033831395702772</v>
       </c>
       <c r="N12">
-        <v>1.000151936104581</v>
+        <v>1.029310999973657</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9677841944666588</v>
+        <v>1.021149182839643</v>
       </c>
       <c r="D13">
-        <v>0.9794888329989513</v>
+        <v>1.0241813905916</v>
       </c>
       <c r="E13">
-        <v>0.980152630651121</v>
+        <v>1.022148105145147</v>
       </c>
       <c r="F13">
-        <v>0.9730524636016067</v>
+        <v>1.030261919598663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03478409869821</v>
+        <v>1.030627258495032</v>
       </c>
       <c r="J13">
-        <v>0.9989195853177929</v>
+        <v>1.027886630272755</v>
       </c>
       <c r="K13">
-        <v>0.9949744394895419</v>
+        <v>1.027828671211614</v>
       </c>
       <c r="L13">
-        <v>0.9956248658854981</v>
+        <v>1.025803216551356</v>
       </c>
       <c r="M13">
-        <v>0.9886689696738958</v>
+        <v>1.033885986751751</v>
       </c>
       <c r="N13">
-        <v>1.000338165706622</v>
+        <v>1.029346347187987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9687563659637284</v>
+        <v>1.021326949005159</v>
       </c>
       <c r="D14">
-        <v>0.9803203496059357</v>
+        <v>1.024343541881229</v>
       </c>
       <c r="E14">
-        <v>0.9809206863924732</v>
+        <v>1.022298818389246</v>
       </c>
       <c r="F14">
-        <v>0.9741498183161117</v>
+        <v>1.030473389923017</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035019423391035</v>
+        <v>1.030656947340699</v>
       </c>
       <c r="J14">
-        <v>0.99952686898768</v>
+        <v>1.028002269996968</v>
       </c>
       <c r="K14">
-        <v>0.9956406597920338</v>
+        <v>1.0279581721745</v>
       </c>
       <c r="L14">
-        <v>0.9962290635557713</v>
+        <v>1.02592124708993</v>
       </c>
       <c r="M14">
-        <v>0.9895939043545183</v>
+        <v>1.034064846923535</v>
       </c>
       <c r="N14">
-        <v>1.000946311788977</v>
+        <v>1.029462151133872</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9693529275150148</v>
+        <v>1.021436479330184</v>
       </c>
       <c r="D15">
-        <v>0.9808307826336029</v>
+        <v>1.02444345884149</v>
       </c>
       <c r="E15">
-        <v>0.9813922125777182</v>
+        <v>1.022391689697356</v>
       </c>
       <c r="F15">
-        <v>0.9748231825616828</v>
+        <v>1.030603688402588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035163563247985</v>
+        <v>1.030675203837901</v>
       </c>
       <c r="J15">
-        <v>0.9998994827401455</v>
+        <v>1.02807350887851</v>
       </c>
       <c r="K15">
-        <v>0.9960494928408828</v>
+        <v>1.028037957020144</v>
       </c>
       <c r="L15">
-        <v>0.9965998547455326</v>
+        <v>1.025993965918036</v>
       </c>
       <c r="M15">
-        <v>0.9901613768511247</v>
+        <v>1.034175039828501</v>
       </c>
       <c r="N15">
-        <v>1.00131945469571</v>
+        <v>1.029533491182797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9727889920420247</v>
+        <v>1.022074034967758</v>
       </c>
       <c r="D16">
-        <v>0.9837734776072735</v>
+        <v>1.025025174251359</v>
       </c>
       <c r="E16">
-        <v>0.9841113359412521</v>
+        <v>1.022932422285842</v>
       </c>
       <c r="F16">
-        <v>0.978701438565627</v>
+        <v>1.031362153464543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03598972912508</v>
+        <v>1.030780918102851</v>
       </c>
       <c r="J16">
-        <v>1.002045028753678</v>
+        <v>1.028487988488063</v>
       </c>
       <c r="K16">
-        <v>0.9984044605633668</v>
+        <v>1.02850226326366</v>
       </c>
       <c r="L16">
-        <v>0.9987359746720258</v>
+        <v>1.026417164524722</v>
       </c>
       <c r="M16">
-        <v>0.9934283517328641</v>
+        <v>1.034816277192482</v>
       </c>
       <c r="N16">
-        <v>1.00346804763068</v>
+        <v>1.029948559400937</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9749133729039068</v>
+        <v>1.022473993846238</v>
       </c>
       <c r="D17">
-        <v>0.9855951481219661</v>
+        <v>1.025390205708292</v>
       </c>
       <c r="E17">
-        <v>0.9857952301726849</v>
+        <v>1.023271769002334</v>
       </c>
       <c r="F17">
-        <v>0.981099101208411</v>
+        <v>1.031837982546786</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036496917222791</v>
+        <v>1.030846748474416</v>
       </c>
       <c r="J17">
-        <v>1.003370938730897</v>
+        <v>1.028747838287712</v>
       </c>
       <c r="K17">
-        <v>0.9998605503188919</v>
+        <v>1.028793443195486</v>
       </c>
       <c r="L17">
-        <v>1.000056990452472</v>
+        <v>1.026682575965209</v>
       </c>
       <c r="M17">
-        <v>0.9954468514440159</v>
+        <v>1.035218392032909</v>
       </c>
       <c r="N17">
-        <v>1.00479584055215</v>
+        <v>1.030208778217107</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9761416692718596</v>
+        <v>1.022707296550281</v>
       </c>
       <c r="D18">
-        <v>0.9866492327763753</v>
+        <v>1.025603171574205</v>
       </c>
       <c r="E18">
-        <v>0.9867698116907047</v>
+        <v>1.023469761524286</v>
       </c>
       <c r="F18">
-        <v>0.9824853853495015</v>
+        <v>1.032115549024811</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036788856077973</v>
+        <v>1.030884972683164</v>
       </c>
       <c r="J18">
-        <v>1.004137335787026</v>
+        <v>1.028899352955581</v>
       </c>
       <c r="K18">
-        <v>1.000702467177835</v>
+        <v>1.028963259284452</v>
       </c>
       <c r="L18">
-        <v>1.00082089129826</v>
+        <v>1.026837367922071</v>
       </c>
       <c r="M18">
-        <v>0.996613451285596</v>
+        <v>1.035452897134029</v>
       </c>
       <c r="N18">
-        <v>1.005563325980006</v>
+        <v>1.030360508053183</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9765586828844651</v>
+        <v>1.022786849035022</v>
       </c>
       <c r="D19">
-        <v>0.9870072362528834</v>
+        <v>1.025675795766444</v>
       </c>
       <c r="E19">
-        <v>0.9871008498062918</v>
+        <v>1.02353728156749</v>
       </c>
       <c r="F19">
-        <v>0.9829560347337527</v>
+        <v>1.032210196028625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036887746717364</v>
+        <v>1.030897976711973</v>
       </c>
       <c r="J19">
-        <v>1.004397491155903</v>
+        <v>1.028951006832817</v>
       </c>
       <c r="K19">
-        <v>1.000988304382509</v>
+        <v>1.029021158065878</v>
       </c>
       <c r="L19">
-        <v>1.001080255549033</v>
+        <v>1.02689014491112</v>
       </c>
       <c r="M19">
-        <v>0.997009438108136</v>
+        <v>1.035532850269199</v>
       </c>
       <c r="N19">
-        <v>1.005823850799346</v>
+        <v>1.03041223528485</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9746865735363942</v>
+        <v>1.022431080653877</v>
       </c>
       <c r="D20">
-        <v>0.9854005813552775</v>
+        <v>1.025351036197223</v>
       </c>
       <c r="E20">
-        <v>0.9856153559725629</v>
+        <v>1.023235354378734</v>
       </c>
       <c r="F20">
-        <v>0.9808431287934523</v>
+        <v>1.031786928174515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036442905518588</v>
+        <v>1.030839703446852</v>
       </c>
       <c r="J20">
-        <v>1.003229407907413</v>
+        <v>1.028719964171145</v>
       </c>
       <c r="K20">
-        <v>0.9997050953717027</v>
+        <v>1.028762204850336</v>
       </c>
       <c r="L20">
-        <v>0.9999159474618483</v>
+        <v>1.02665410169428</v>
       </c>
       <c r="M20">
-        <v>0.9952314055951301</v>
+        <v>1.035175253233426</v>
       </c>
       <c r="N20">
-        <v>1.004654108738663</v>
+        <v>1.030180864516097</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9684705930355921</v>
+        <v>1.021274600733309</v>
       </c>
       <c r="D21">
-        <v>0.9800758843583964</v>
+        <v>1.024295790242747</v>
       </c>
       <c r="E21">
-        <v>0.9806948683048535</v>
+        <v>1.022254434614573</v>
       </c>
       <c r="F21">
-        <v>0.9738272505187039</v>
+        <v>1.030411116220063</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034950304025979</v>
+        <v>1.030648212169285</v>
       </c>
       <c r="J21">
-        <v>0.9993483639819297</v>
+        <v>1.027968219182023</v>
       </c>
       <c r="K21">
-        <v>0.9954448189883978</v>
+        <v>1.027920038404071</v>
       </c>
       <c r="L21">
-        <v>0.9960514508264254</v>
+        <v>1.025886490804826</v>
       </c>
       <c r="M21">
-        <v>0.9893220383221617</v>
+        <v>1.034012178885277</v>
       </c>
       <c r="N21">
-        <v>1.000767553285644</v>
+        <v>1.029428051962864</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.964457336090852</v>
+        <v>1.020547595062656</v>
       </c>
       <c r="D22">
-        <v>0.9766460941512367</v>
+        <v>1.023632760318114</v>
       </c>
       <c r="E22">
-        <v>0.9775275956274946</v>
+        <v>1.021638210841965</v>
       </c>
       <c r="F22">
-        <v>0.9692969559058308</v>
+        <v>1.029546291860863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033974886048538</v>
+        <v>1.030526251626306</v>
       </c>
       <c r="J22">
-        <v>0.9968408681147515</v>
+        <v>1.027495105701495</v>
       </c>
       <c r="K22">
-        <v>0.9926948405415538</v>
+        <v>1.027390317722675</v>
       </c>
       <c r="L22">
-        <v>0.993557778571436</v>
+        <v>1.025403702408006</v>
       </c>
       <c r="M22">
-        <v>0.9855022102176502</v>
+        <v>1.033280526522669</v>
       </c>
       <c r="N22">
-        <v>0.9982564964867201</v>
+        <v>1.028954266606927</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9665951793898442</v>
+        <v>1.020932983329952</v>
       </c>
       <c r="D23">
-        <v>0.9784723469771948</v>
+        <v>1.02398420274432</v>
       </c>
       <c r="E23">
-        <v>0.9792138568026798</v>
+        <v>1.021964833343976</v>
       </c>
       <c r="F23">
-        <v>0.9717102992637825</v>
+        <v>1.030004732732312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034495572041128</v>
+        <v>1.030591053265496</v>
       </c>
       <c r="J23">
-        <v>0.9981767457909259</v>
+        <v>1.027745955821637</v>
       </c>
       <c r="K23">
-        <v>0.9941596630826199</v>
+        <v>1.027671153211795</v>
       </c>
       <c r="L23">
-        <v>0.9948859941797652</v>
+        <v>1.025659652851516</v>
       </c>
       <c r="M23">
-        <v>0.9875374476200387</v>
+        <v>1.033668425715196</v>
       </c>
       <c r="N23">
-        <v>0.9995942712624222</v>
+        <v>1.029205472963012</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9747890877627496</v>
+        <v>1.022450471236553</v>
       </c>
       <c r="D24">
-        <v>0.9854885238018134</v>
+        <v>1.025368735061164</v>
       </c>
       <c r="E24">
-        <v>0.9856966568314787</v>
+        <v>1.023251808402527</v>
       </c>
       <c r="F24">
-        <v>0.9809588294158071</v>
+        <v>1.031809997374969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036467323101015</v>
+        <v>1.030842887327717</v>
       </c>
       <c r="J24">
-        <v>1.003293381130136</v>
+        <v>1.028732559443085</v>
       </c>
       <c r="K24">
-        <v>0.9997753615758765</v>
+        <v>1.028776320188676</v>
       </c>
       <c r="L24">
-        <v>0.9999796991481134</v>
+        <v>1.026666968047345</v>
       </c>
       <c r="M24">
-        <v>0.9953287894639185</v>
+        <v>1.03519474592849</v>
       </c>
       <c r="N24">
-        <v>1.0047181728107</v>
+        <v>1.030193477674768</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9838763788808617</v>
+        <v>1.024211960358649</v>
       </c>
       <c r="D25">
-        <v>0.9933007116884395</v>
+        <v>1.026977336386326</v>
       </c>
       <c r="E25">
-        <v>0.9929233454695073</v>
+        <v>1.024747518347874</v>
       </c>
       <c r="F25">
-        <v>0.9912150703527275</v>
+        <v>1.033905829350285</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038603395122182</v>
+        <v>1.031128318819796</v>
       </c>
       <c r="J25">
-        <v>1.008958823542491</v>
+        <v>1.029875444182363</v>
       </c>
       <c r="K25">
-        <v>1.006003923390383</v>
+        <v>1.030057853407662</v>
       </c>
       <c r="L25">
-        <v>1.005632519791873</v>
+        <v>1.027835192426218</v>
       </c>
       <c r="M25">
-        <v>1.003951309235605</v>
+        <v>1.036964323396776</v>
       </c>
       <c r="N25">
-        <v>1.010391660801115</v>
+        <v>1.031337985441467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025617356788274</v>
+        <v>0.9908200180408731</v>
       </c>
       <c r="D2">
-        <v>1.028261897521059</v>
+        <v>0.9992925165611292</v>
       </c>
       <c r="E2">
-        <v>1.025942288655465</v>
+        <v>0.9984721896188304</v>
       </c>
       <c r="F2">
-        <v>1.035578244822902</v>
+        <v>0.9990531155532704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031350482319003</v>
+        <v>1.040193253100951</v>
       </c>
       <c r="J2">
-        <v>1.030785377314057</v>
+        <v>1.013278811069724</v>
       </c>
       <c r="K2">
-        <v>1.031079227073046</v>
+        <v>1.010761716558591</v>
       </c>
       <c r="L2">
-        <v>1.028766384590913</v>
+        <v>1.009952850382952</v>
       </c>
       <c r="M2">
-        <v>1.038374448093185</v>
+        <v>1.010525657760751</v>
       </c>
       <c r="N2">
-        <v>1.032249210782583</v>
+        <v>1.014717783206135</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026638059890754</v>
+        <v>0.9957008547104454</v>
       </c>
       <c r="D3">
-        <v>1.029195495130404</v>
+        <v>1.003516244655422</v>
       </c>
       <c r="E3">
-        <v>1.026810832799274</v>
+        <v>1.002386928659116</v>
       </c>
       <c r="F3">
-        <v>1.036793044735852</v>
+        <v>1.004564092030757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031508602293804</v>
+        <v>1.041285453709054</v>
       </c>
       <c r="J3">
-        <v>1.031445123375345</v>
+        <v>1.016309408853495</v>
       </c>
       <c r="K3">
-        <v>1.031820383910679</v>
+        <v>1.01410433131231</v>
       </c>
       <c r="L3">
-        <v>1.029442172498026</v>
+        <v>1.012989359120772</v>
       </c>
       <c r="M3">
-        <v>1.039397594799872</v>
+        <v>1.015138905645051</v>
       </c>
       <c r="N3">
-        <v>1.032909893758947</v>
+        <v>1.017752684786386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027298645951825</v>
+        <v>0.9987893439251517</v>
       </c>
       <c r="D4">
-        <v>1.029800006832352</v>
+        <v>1.00619414806343</v>
       </c>
       <c r="E4">
-        <v>1.027373315582281</v>
+        <v>1.004870356467252</v>
       </c>
       <c r="F4">
-        <v>1.037579330063497</v>
+        <v>1.008052206710059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03160943914771</v>
+        <v>1.041964565443526</v>
       </c>
       <c r="J4">
-        <v>1.031871584866223</v>
+        <v>1.018224069190042</v>
       </c>
       <c r="K4">
-        <v>1.032299752458712</v>
+        <v>1.016218385635105</v>
       </c>
       <c r="L4">
-        <v>1.029879293839758</v>
+        <v>1.014910353841879</v>
       </c>
       <c r="M4">
-        <v>1.040059307347676</v>
+        <v>1.018054410498219</v>
       </c>
       <c r="N4">
-        <v>1.033336960874057</v>
+        <v>1.019670064160225</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027576385785985</v>
+        <v>1.000071700528705</v>
       </c>
       <c r="D5">
-        <v>1.030054241626095</v>
+        <v>1.007307235636982</v>
       </c>
       <c r="E5">
-        <v>1.027609896860112</v>
+        <v>1.005902940208357</v>
       </c>
       <c r="F5">
-        <v>1.037909939863129</v>
+        <v>1.009500732831759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031651477048833</v>
+        <v>1.042243612750572</v>
       </c>
       <c r="J5">
-        <v>1.032050764047642</v>
+        <v>1.019018280769235</v>
       </c>
       <c r="K5">
-        <v>1.032501228495845</v>
+        <v>1.017095853317029</v>
       </c>
       <c r="L5">
-        <v>1.030063021285689</v>
+        <v>1.015707814119713</v>
       </c>
       <c r="M5">
-        <v>1.040337412368454</v>
+        <v>1.01926407016374</v>
       </c>
       <c r="N5">
-        <v>1.033516394510467</v>
+        <v>1.020465403610958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027623021254428</v>
+        <v>1.000286091260078</v>
       </c>
       <c r="D6">
-        <v>1.030096934504152</v>
+        <v>1.007493396933241</v>
       </c>
       <c r="E6">
-        <v>1.027649626537018</v>
+        <v>1.006075656573141</v>
       </c>
       <c r="F6">
-        <v>1.037965453976081</v>
+        <v>1.009742919736184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03165851463704</v>
+        <v>1.042290092191068</v>
       </c>
       <c r="J6">
-        <v>1.03208084284141</v>
+        <v>1.019151014966435</v>
       </c>
       <c r="K6">
-        <v>1.032535054237493</v>
+        <v>1.017242534045442</v>
       </c>
       <c r="L6">
-        <v>1.030093867671102</v>
+        <v>1.01584112771601</v>
       </c>
       <c r="M6">
-        <v>1.040384102810893</v>
+        <v>1.019466255873579</v>
       </c>
       <c r="N6">
-        <v>1.033546516019572</v>
+        <v>1.020598326305942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027302357009302</v>
+        <v>0.9988065410442808</v>
       </c>
       <c r="D7">
-        <v>1.029803403545333</v>
+        <v>1.006209070471671</v>
       </c>
       <c r="E7">
-        <v>1.027376476347602</v>
+        <v>1.004884198321819</v>
       </c>
       <c r="F7">
-        <v>1.037583747469032</v>
+        <v>1.008071631256608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031610002251127</v>
+        <v>1.041968319231068</v>
       </c>
       <c r="J7">
-        <v>1.031873979481064</v>
+        <v>1.018234723082823</v>
       </c>
       <c r="K7">
-        <v>1.032302444790254</v>
+        <v>1.016230154197909</v>
       </c>
       <c r="L7">
-        <v>1.02988174896613</v>
+        <v>1.014921048861627</v>
       </c>
       <c r="M7">
-        <v>1.040063023710115</v>
+        <v>1.018070636154211</v>
       </c>
       <c r="N7">
-        <v>1.033339358889527</v>
+        <v>1.019680733182756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025962282751718</v>
+        <v>0.9924843634234174</v>
       </c>
       <c r="D8">
-        <v>1.02857732569412</v>
+        <v>1.00073166756802</v>
       </c>
       <c r="E8">
-        <v>1.026235718166729</v>
+        <v>0.9998057522707108</v>
       </c>
       <c r="F8">
-        <v>1.035988745257806</v>
+        <v>1.000932169084348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031404225458264</v>
+        <v>1.040568184544871</v>
       </c>
       <c r="J8">
-        <v>1.031008432167049</v>
+        <v>1.014312847512422</v>
       </c>
       <c r="K8">
-        <v>1.031329747662286</v>
+        <v>1.011901737064684</v>
       </c>
       <c r="L8">
-        <v>1.028994802887146</v>
+        <v>1.010988355408002</v>
       </c>
       <c r="M8">
-        <v>1.03872029431021</v>
+        <v>1.012099528335871</v>
       </c>
       <c r="N8">
-        <v>1.032472582399046</v>
+        <v>1.0157532880992</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02360184008755</v>
+        <v>0.9807785062042731</v>
       </c>
       <c r="D9">
-        <v>1.02641999266132</v>
+        <v>0.9906338161634711</v>
       </c>
       <c r="E9">
-        <v>1.024229232861523</v>
+        <v>0.9904553219999583</v>
       </c>
       <c r="F9">
-        <v>1.033179864880948</v>
+        <v>0.9877186196056661</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031030315915033</v>
+        <v>1.037881780316769</v>
       </c>
       <c r="J9">
-        <v>1.029479882712239</v>
+        <v>1.007028773903111</v>
       </c>
       <c r="K9">
-        <v>1.029614141657628</v>
+        <v>1.003880703270054</v>
       </c>
       <c r="L9">
-        <v>1.027430692644398</v>
+        <v>1.003705176684725</v>
       </c>
       <c r="M9">
-        <v>1.036351669830141</v>
+        <v>1.001014146779397</v>
       </c>
       <c r="N9">
-        <v>1.030941862228684</v>
+        <v>1.008458870269867</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022028837579743</v>
+        <v>0.9725474282658393</v>
       </c>
       <c r="D10">
-        <v>1.024983928846826</v>
+        <v>0.9835664475683421</v>
       </c>
       <c r="E10">
-        <v>1.022894080607884</v>
+        <v>0.9839199942755774</v>
       </c>
       <c r="F10">
-        <v>1.031308383342866</v>
+        <v>0.9784287957244854</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030773455160596</v>
+        <v>1.035931878886407</v>
       </c>
       <c r="J10">
-        <v>1.028458616018615</v>
+        <v>1.001894228947043</v>
       </c>
       <c r="K10">
-        <v>1.028469353853761</v>
+        <v>0.9982388923800241</v>
       </c>
       <c r="L10">
-        <v>1.026387168041775</v>
+        <v>0.9985857770723092</v>
       </c>
       <c r="M10">
-        <v>1.034770828686702</v>
+        <v>0.9931987622672216</v>
       </c>
       <c r="N10">
-        <v>1.029919145219213</v>
+        <v>1.003317033671022</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021347856375988</v>
+        <v>0.9688703820811924</v>
       </c>
       <c r="D11">
-        <v>1.024362613778711</v>
+        <v>0.9804178939103176</v>
       </c>
       <c r="E11">
-        <v>1.022316545287498</v>
+        <v>0.981010792668394</v>
       </c>
       <c r="F11">
-        <v>1.030498261478656</v>
+        <v>0.9742785139475453</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030660434315639</v>
+        <v>1.035046987363113</v>
       </c>
       <c r="J11">
-        <v>1.028015868947512</v>
+        <v>0.9995980860451713</v>
       </c>
       <c r="K11">
-        <v>1.027973402078396</v>
+        <v>0.9957187960002</v>
       </c>
       <c r="L11">
-        <v>1.025935128131649</v>
+        <v>0.9962999280843496</v>
       </c>
       <c r="M11">
-        <v>1.034085881446444</v>
+        <v>0.9897023669679286</v>
       </c>
       <c r="N11">
-        <v>1.029475769396486</v>
+        <v>1.001017629982858</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021094930256784</v>
+        <v>0.9674865152869736</v>
       </c>
       <c r="D12">
-        <v>1.024131906604081</v>
+        <v>0.9792342961115713</v>
       </c>
       <c r="E12">
-        <v>1.022102112693703</v>
+        <v>0.9799175396780779</v>
       </c>
       <c r="F12">
-        <v>1.030197381369558</v>
+        <v>0.9727164470277464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030618183287957</v>
+        <v>1.034711936759484</v>
       </c>
       <c r="J12">
-        <v>1.02785133318434</v>
+        <v>0.9987336198081057</v>
       </c>
       <c r="K12">
-        <v>1.027789145949684</v>
+        <v>0.9947704490510784</v>
       </c>
       <c r="L12">
-        <v>1.025767192540968</v>
+        <v>0.9954398738573447</v>
       </c>
       <c r="M12">
-        <v>1.033831395702772</v>
+        <v>0.9883857131328643</v>
       </c>
       <c r="N12">
-        <v>1.029310999973657</v>
+        <v>1.000151936104581</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021149182839643</v>
+        <v>0.9677841944666578</v>
       </c>
       <c r="D13">
-        <v>1.0241813905916</v>
+        <v>0.9794888329989501</v>
       </c>
       <c r="E13">
-        <v>1.022148105145147</v>
+        <v>0.9801526306511198</v>
       </c>
       <c r="F13">
-        <v>1.030261919598663</v>
+        <v>0.973052463601606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030627258495032</v>
+        <v>1.034784098698209</v>
       </c>
       <c r="J13">
-        <v>1.027886630272755</v>
+        <v>0.9989195853177917</v>
       </c>
       <c r="K13">
-        <v>1.027828671211614</v>
+        <v>0.9949744394895408</v>
       </c>
       <c r="L13">
-        <v>1.025803216551356</v>
+        <v>0.995624865885497</v>
       </c>
       <c r="M13">
-        <v>1.033885986751751</v>
+        <v>0.9886689696738952</v>
       </c>
       <c r="N13">
-        <v>1.029346347187987</v>
+        <v>1.000338165706621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021326949005159</v>
+        <v>0.9687563659637282</v>
       </c>
       <c r="D14">
-        <v>1.024343541881229</v>
+        <v>0.9803203496059355</v>
       </c>
       <c r="E14">
-        <v>1.022298818389246</v>
+        <v>0.9809206863924728</v>
       </c>
       <c r="F14">
-        <v>1.030473389923017</v>
+        <v>0.9741498183161115</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030656947340699</v>
+        <v>1.035019423391035</v>
       </c>
       <c r="J14">
-        <v>1.028002269996968</v>
+        <v>0.9995268689876796</v>
       </c>
       <c r="K14">
-        <v>1.0279581721745</v>
+        <v>0.9956406597920334</v>
       </c>
       <c r="L14">
-        <v>1.02592124708993</v>
+        <v>0.9962290635557709</v>
       </c>
       <c r="M14">
-        <v>1.034064846923535</v>
+        <v>0.9895939043545179</v>
       </c>
       <c r="N14">
-        <v>1.029462151133872</v>
+        <v>1.000946311788976</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021436479330184</v>
+        <v>0.9693529275150142</v>
       </c>
       <c r="D15">
-        <v>1.02444345884149</v>
+        <v>0.9808307826336023</v>
       </c>
       <c r="E15">
-        <v>1.022391689697356</v>
+        <v>0.9813922125777181</v>
       </c>
       <c r="F15">
-        <v>1.030603688402588</v>
+        <v>0.9748231825616828</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030675203837901</v>
+        <v>1.035163563247985</v>
       </c>
       <c r="J15">
-        <v>1.02807350887851</v>
+        <v>0.9998994827401452</v>
       </c>
       <c r="K15">
-        <v>1.028037957020144</v>
+        <v>0.9960494928408823</v>
       </c>
       <c r="L15">
-        <v>1.025993965918036</v>
+        <v>0.9965998547455324</v>
       </c>
       <c r="M15">
-        <v>1.034175039828501</v>
+        <v>0.9901613768511244</v>
       </c>
       <c r="N15">
-        <v>1.029533491182797</v>
+        <v>1.00131945469571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022074034967758</v>
+        <v>0.9727889920420242</v>
       </c>
       <c r="D16">
-        <v>1.025025174251359</v>
+        <v>0.9837734776072734</v>
       </c>
       <c r="E16">
-        <v>1.022932422285842</v>
+        <v>0.9841113359412513</v>
       </c>
       <c r="F16">
-        <v>1.031362153464543</v>
+        <v>0.9787014385656266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030780918102851</v>
+        <v>1.03598972912508</v>
       </c>
       <c r="J16">
-        <v>1.028487988488063</v>
+        <v>1.002045028753678</v>
       </c>
       <c r="K16">
-        <v>1.02850226326366</v>
+        <v>0.9984044605633666</v>
       </c>
       <c r="L16">
-        <v>1.026417164524722</v>
+        <v>0.9987359746720248</v>
       </c>
       <c r="M16">
-        <v>1.034816277192482</v>
+        <v>0.9934283517328638</v>
       </c>
       <c r="N16">
-        <v>1.029948559400937</v>
+        <v>1.00346804763068</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022473993846238</v>
+        <v>0.9749133729039067</v>
       </c>
       <c r="D17">
-        <v>1.025390205708292</v>
+        <v>0.9855951481219658</v>
       </c>
       <c r="E17">
-        <v>1.023271769002334</v>
+        <v>0.9857952301726848</v>
       </c>
       <c r="F17">
-        <v>1.031837982546786</v>
+        <v>0.9810991012084107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030846748474416</v>
+        <v>1.036496917222791</v>
       </c>
       <c r="J17">
-        <v>1.028747838287712</v>
+        <v>1.003370938730897</v>
       </c>
       <c r="K17">
-        <v>1.028793443195486</v>
+        <v>0.9998605503188916</v>
       </c>
       <c r="L17">
-        <v>1.026682575965209</v>
+        <v>1.000056990452471</v>
       </c>
       <c r="M17">
-        <v>1.035218392032909</v>
+        <v>0.9954468514440157</v>
       </c>
       <c r="N17">
-        <v>1.030208778217107</v>
+        <v>1.00479584055215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022707296550281</v>
+        <v>0.9761416692718603</v>
       </c>
       <c r="D18">
-        <v>1.025603171574205</v>
+        <v>0.9866492327763761</v>
       </c>
       <c r="E18">
-        <v>1.023469761524286</v>
+        <v>0.9867698116907052</v>
       </c>
       <c r="F18">
-        <v>1.032115549024811</v>
+        <v>0.9824853853495026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030884972683164</v>
+        <v>1.036788856077973</v>
       </c>
       <c r="J18">
-        <v>1.028899352955581</v>
+        <v>1.004137335787027</v>
       </c>
       <c r="K18">
-        <v>1.028963259284452</v>
+        <v>1.000702467177836</v>
       </c>
       <c r="L18">
-        <v>1.026837367922071</v>
+        <v>1.00082089129826</v>
       </c>
       <c r="M18">
-        <v>1.035452897134029</v>
+        <v>0.9966134512855968</v>
       </c>
       <c r="N18">
-        <v>1.030360508053183</v>
+        <v>1.005563325980007</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022786849035022</v>
+        <v>0.9765586828844639</v>
       </c>
       <c r="D19">
-        <v>1.025675795766444</v>
+        <v>0.987007236252882</v>
       </c>
       <c r="E19">
-        <v>1.02353728156749</v>
+        <v>0.9871008498062906</v>
       </c>
       <c r="F19">
-        <v>1.032210196028625</v>
+        <v>0.9829560347337518</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030897976711973</v>
+        <v>1.036887746717363</v>
       </c>
       <c r="J19">
-        <v>1.028951006832817</v>
+        <v>1.004397491155901</v>
       </c>
       <c r="K19">
-        <v>1.029021158065878</v>
+        <v>1.000988304382507</v>
       </c>
       <c r="L19">
-        <v>1.02689014491112</v>
+        <v>1.001080255549031</v>
       </c>
       <c r="M19">
-        <v>1.035532850269199</v>
+        <v>0.9970094381081351</v>
       </c>
       <c r="N19">
-        <v>1.03041223528485</v>
+        <v>1.005823850799345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022431080653877</v>
+        <v>0.9746865735363944</v>
       </c>
       <c r="D20">
-        <v>1.025351036197223</v>
+        <v>0.9854005813552783</v>
       </c>
       <c r="E20">
-        <v>1.023235354378734</v>
+        <v>0.9856153559725632</v>
       </c>
       <c r="F20">
-        <v>1.031786928174515</v>
+        <v>0.9808431287934524</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030839703446852</v>
+        <v>1.036442905518588</v>
       </c>
       <c r="J20">
-        <v>1.028719964171145</v>
+        <v>1.003229407907413</v>
       </c>
       <c r="K20">
-        <v>1.028762204850336</v>
+        <v>0.9997050953717034</v>
       </c>
       <c r="L20">
-        <v>1.02665410169428</v>
+        <v>0.9999159474618489</v>
       </c>
       <c r="M20">
-        <v>1.035175253233426</v>
+        <v>0.9952314055951303</v>
       </c>
       <c r="N20">
-        <v>1.030180864516097</v>
+        <v>1.004654108738664</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021274600733309</v>
+        <v>0.9684705930355918</v>
       </c>
       <c r="D21">
-        <v>1.024295790242747</v>
+        <v>0.9800758843583962</v>
       </c>
       <c r="E21">
-        <v>1.022254434614573</v>
+        <v>0.9806948683048531</v>
       </c>
       <c r="F21">
-        <v>1.030411116220063</v>
+        <v>0.9738272505187037</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030648212169285</v>
+        <v>1.034950304025979</v>
       </c>
       <c r="J21">
-        <v>1.027968219182023</v>
+        <v>0.9993483639819294</v>
       </c>
       <c r="K21">
-        <v>1.027920038404071</v>
+        <v>0.9954448189883974</v>
       </c>
       <c r="L21">
-        <v>1.025886490804826</v>
+        <v>0.9960514508264251</v>
       </c>
       <c r="M21">
-        <v>1.034012178885277</v>
+        <v>0.9893220383221615</v>
       </c>
       <c r="N21">
-        <v>1.029428051962864</v>
+        <v>1.000767553285643</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020547595062656</v>
+        <v>0.9644573360908515</v>
       </c>
       <c r="D22">
-        <v>1.023632760318114</v>
+        <v>0.9766460941512356</v>
       </c>
       <c r="E22">
-        <v>1.021638210841965</v>
+        <v>0.9775275956274935</v>
       </c>
       <c r="F22">
-        <v>1.029546291860863</v>
+        <v>0.9692969559058303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030526251626306</v>
+        <v>1.033974886048538</v>
       </c>
       <c r="J22">
-        <v>1.027495105701495</v>
+        <v>0.9968408681147506</v>
       </c>
       <c r="K22">
-        <v>1.027390317722675</v>
+        <v>0.9926948405415529</v>
       </c>
       <c r="L22">
-        <v>1.025403702408006</v>
+        <v>0.993557778571435</v>
       </c>
       <c r="M22">
-        <v>1.033280526522669</v>
+        <v>0.9855022102176497</v>
       </c>
       <c r="N22">
-        <v>1.028954266606927</v>
+        <v>0.9982564964867192</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020932983329952</v>
+        <v>0.9665951793898437</v>
       </c>
       <c r="D23">
-        <v>1.02398420274432</v>
+        <v>0.9784723469771938</v>
       </c>
       <c r="E23">
-        <v>1.021964833343976</v>
+        <v>0.9792138568026795</v>
       </c>
       <c r="F23">
-        <v>1.030004732732312</v>
+        <v>0.9717102992637821</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030591053265496</v>
+        <v>1.034495572041128</v>
       </c>
       <c r="J23">
-        <v>1.027745955821637</v>
+        <v>0.9981767457909254</v>
       </c>
       <c r="K23">
-        <v>1.027671153211795</v>
+        <v>0.9941596630826193</v>
       </c>
       <c r="L23">
-        <v>1.025659652851516</v>
+        <v>0.9948859941797648</v>
       </c>
       <c r="M23">
-        <v>1.033668425715196</v>
+        <v>0.9875374476200383</v>
       </c>
       <c r="N23">
-        <v>1.029205472963012</v>
+        <v>0.9995942712624216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022450471236553</v>
+        <v>0.9747890877627486</v>
       </c>
       <c r="D24">
-        <v>1.025368735061164</v>
+        <v>0.9854885238018124</v>
       </c>
       <c r="E24">
-        <v>1.023251808402527</v>
+        <v>0.9856966568314774</v>
       </c>
       <c r="F24">
-        <v>1.031809997374969</v>
+        <v>0.9809588294158065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030842887327717</v>
+        <v>1.036467323101015</v>
       </c>
       <c r="J24">
-        <v>1.028732559443085</v>
+        <v>1.003293381130135</v>
       </c>
       <c r="K24">
-        <v>1.028776320188676</v>
+        <v>0.9997753615758758</v>
       </c>
       <c r="L24">
-        <v>1.026666968047345</v>
+        <v>0.9999796991481122</v>
       </c>
       <c r="M24">
-        <v>1.03519474592849</v>
+        <v>0.9953287894639178</v>
       </c>
       <c r="N24">
-        <v>1.030193477674768</v>
+        <v>1.0047181728107</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024211960358649</v>
+        <v>0.9838763788808618</v>
       </c>
       <c r="D25">
-        <v>1.026977336386326</v>
+        <v>0.9933007116884395</v>
       </c>
       <c r="E25">
-        <v>1.024747518347874</v>
+        <v>0.9929233454695077</v>
       </c>
       <c r="F25">
-        <v>1.033905829350285</v>
+        <v>0.9912150703527277</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031128318819796</v>
+        <v>1.038603395122182</v>
       </c>
       <c r="J25">
-        <v>1.029875444182363</v>
+        <v>1.008958823542491</v>
       </c>
       <c r="K25">
-        <v>1.030057853407662</v>
+        <v>1.006003923390383</v>
       </c>
       <c r="L25">
-        <v>1.027835192426218</v>
+        <v>1.005632519791873</v>
       </c>
       <c r="M25">
-        <v>1.036964323396776</v>
+        <v>1.003951309235605</v>
       </c>
       <c r="N25">
-        <v>1.031337985441467</v>
+        <v>1.010391660801116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9908200180408731</v>
+        <v>0.9897931397024878</v>
       </c>
       <c r="D2">
-        <v>0.9992925165611292</v>
+        <v>1.004235922761453</v>
       </c>
       <c r="E2">
-        <v>0.9984721896188304</v>
+        <v>1.006916703262983</v>
       </c>
       <c r="F2">
-        <v>0.9990531155532704</v>
+        <v>1.017295168454872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040193253100951</v>
+        <v>1.045224098310602</v>
       </c>
       <c r="J2">
-        <v>1.013278811069724</v>
+        <v>1.012283481821725</v>
       </c>
       <c r="K2">
-        <v>1.010761716558591</v>
+        <v>1.015636558218926</v>
       </c>
       <c r="L2">
-        <v>1.009952850382952</v>
+        <v>1.018280511180413</v>
       </c>
       <c r="M2">
-        <v>1.010525657760751</v>
+        <v>1.028518699844039</v>
       </c>
       <c r="N2">
-        <v>1.014717783206135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007490103933903</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03114296669328</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.022126185028893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9957008547104454</v>
+        <v>0.9939259049997505</v>
       </c>
       <c r="D3">
-        <v>1.003516244655422</v>
+        <v>1.0072802824051</v>
       </c>
       <c r="E3">
-        <v>1.002386928659116</v>
+        <v>1.01019742303478</v>
       </c>
       <c r="F3">
-        <v>1.004564092030757</v>
+        <v>1.020477247439425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041285453709054</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.016309408853495</v>
+        <v>1.014583536816963</v>
       </c>
       <c r="K3">
-        <v>1.01410433131231</v>
+        <v>1.017820850501447</v>
       </c>
       <c r="L3">
-        <v>1.012989359120772</v>
+        <v>1.020701467658983</v>
       </c>
       <c r="M3">
-        <v>1.015138905645051</v>
+        <v>1.030854654457719</v>
       </c>
       <c r="N3">
-        <v>1.017752684786386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008331930382105</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032991740115859</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.023668018351504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987893439251517</v>
+        <v>0.9965534217656878</v>
       </c>
       <c r="D4">
-        <v>1.00619414806343</v>
+        <v>1.009223089944302</v>
       </c>
       <c r="E4">
-        <v>1.004870356467252</v>
+        <v>1.012289445124353</v>
       </c>
       <c r="F4">
-        <v>1.008052206710059</v>
+        <v>1.022508648253037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041964565443526</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.018224069190042</v>
+        <v>1.016045704165615</v>
       </c>
       <c r="K4">
-        <v>1.016218385635105</v>
+        <v>1.019211460423032</v>
       </c>
       <c r="L4">
-        <v>1.014910353841879</v>
+        <v>1.02224177602444</v>
       </c>
       <c r="M4">
-        <v>1.018054410498219</v>
+        <v>1.032342796610108</v>
       </c>
       <c r="N4">
-        <v>1.019670064160225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008865960512119</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034169516303073</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.024652258941834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000071700528705</v>
+        <v>0.9976524262136747</v>
       </c>
       <c r="D5">
-        <v>1.007307235636982</v>
+        <v>1.010040518299739</v>
       </c>
       <c r="E5">
-        <v>1.005902940208357</v>
+        <v>1.013166199713901</v>
       </c>
       <c r="F5">
-        <v>1.009500732831759</v>
+        <v>1.023359753781228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042243612750572</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.019018280769235</v>
+        <v>1.016659386847713</v>
       </c>
       <c r="K5">
-        <v>1.017095853317029</v>
+        <v>1.019797655315999</v>
       </c>
       <c r="L5">
-        <v>1.015707814119713</v>
+        <v>1.022887593417683</v>
       </c>
       <c r="M5">
-        <v>1.01926407016374</v>
+        <v>1.032966447251699</v>
       </c>
       <c r="N5">
-        <v>1.020465403610958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009090228761735</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034663098183913</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.025074084161837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000286091260078</v>
+        <v>0.9978426624009357</v>
       </c>
       <c r="D6">
-        <v>1.007493396933241</v>
+        <v>1.010185875702006</v>
       </c>
       <c r="E6">
-        <v>1.006075656573141</v>
+        <v>1.013318387382347</v>
       </c>
       <c r="F6">
-        <v>1.009742919736184</v>
+        <v>1.023506564270185</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042290092191068</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.019151014966435</v>
+        <v>1.016768249791865</v>
       </c>
       <c r="K6">
-        <v>1.017242534045442</v>
+        <v>1.019904148050278</v>
       </c>
       <c r="L6">
-        <v>1.01584112771601</v>
+        <v>1.023001005234007</v>
       </c>
       <c r="M6">
-        <v>1.019466255873579</v>
+        <v>1.033075075573514</v>
       </c>
       <c r="N6">
-        <v>1.020598326305942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009130499605607</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034749070915739</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.025158309463163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988065410442808</v>
+        <v>0.9965852943792175</v>
       </c>
       <c r="D7">
-        <v>1.006209070471671</v>
+        <v>1.009256878325914</v>
       </c>
       <c r="E7">
-        <v>1.004884198321819</v>
+        <v>1.012315791469246</v>
       </c>
       <c r="F7">
-        <v>1.008071631256608</v>
+        <v>1.022531629858521</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041968319231068</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.018234723082823</v>
+        <v>1.01607063101836</v>
       </c>
       <c r="K7">
-        <v>1.016230154197909</v>
+        <v>1.019241885824376</v>
       </c>
       <c r="L7">
-        <v>1.014921048861627</v>
+        <v>1.022264861554633</v>
       </c>
       <c r="M7">
-        <v>1.018070636154211</v>
+        <v>1.032362602918702</v>
       </c>
       <c r="N7">
-        <v>1.019680733182756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008876454752407</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034185191807451</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.024694301312061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924843634234174</v>
+        <v>0.9912216667858014</v>
       </c>
       <c r="D8">
-        <v>1.00073166756802</v>
+        <v>1.005299332540805</v>
       </c>
       <c r="E8">
-        <v>0.9998057522707108</v>
+        <v>1.008050681381083</v>
       </c>
       <c r="F8">
-        <v>1.000932169084348</v>
+        <v>1.018391263529353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040568184544871</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.014312847512422</v>
+        <v>1.013087610884414</v>
       </c>
       <c r="K8">
-        <v>1.011901737064684</v>
+        <v>1.016407996314401</v>
       </c>
       <c r="L8">
-        <v>1.010988355408002</v>
+        <v>1.019122694276091</v>
       </c>
       <c r="M8">
-        <v>1.012099528335871</v>
+        <v>1.029327745400504</v>
       </c>
       <c r="N8">
-        <v>1.0157532880992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007786488239823</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.031783280168262</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.022695095979339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9807785062042731</v>
+        <v>0.9813670228099298</v>
       </c>
       <c r="D9">
-        <v>0.9906338161634711</v>
+        <v>0.9980713384088765</v>
       </c>
       <c r="E9">
-        <v>0.9904553219999583</v>
+        <v>1.000264145037294</v>
       </c>
       <c r="F9">
-        <v>0.9877186196056661</v>
+        <v>1.010854935984553</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037881780316769</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.007028773903111</v>
+        <v>1.007595363496895</v>
       </c>
       <c r="K9">
-        <v>1.003880703270054</v>
+        <v>1.011195784496853</v>
       </c>
       <c r="L9">
-        <v>1.003705176684725</v>
+        <v>1.013352938125722</v>
       </c>
       <c r="M9">
-        <v>1.001014146779397</v>
+        <v>1.023774320595106</v>
       </c>
       <c r="N9">
-        <v>1.008458870269867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005768807549276</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.027388048862709</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.019006287291248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9725474282658393</v>
+        <v>0.9746170294958966</v>
       </c>
       <c r="D10">
-        <v>0.9835664475683421</v>
+        <v>0.9931772809348085</v>
       </c>
       <c r="E10">
-        <v>0.9839199942755774</v>
+        <v>0.9950134418729614</v>
       </c>
       <c r="F10">
-        <v>0.9784287957244854</v>
+        <v>1.005835833126886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035931878886407</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.001894228947043</v>
+        <v>1.003875225303718</v>
       </c>
       <c r="K10">
-        <v>0.9982388923800241</v>
+        <v>1.007670824122249</v>
       </c>
       <c r="L10">
-        <v>0.9985857770723092</v>
+        <v>1.009473317653554</v>
       </c>
       <c r="M10">
-        <v>0.9931987622672216</v>
+        <v>1.020100513214719</v>
       </c>
       <c r="N10">
-        <v>1.003317033671022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004403813968177</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.024532740087626</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.016531025085008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688703820811924</v>
+        <v>0.9724029139731619</v>
       </c>
       <c r="D11">
-        <v>0.9804178939103176</v>
+        <v>0.9916840466547826</v>
       </c>
       <c r="E11">
-        <v>0.981010792668394</v>
+        <v>0.9936653656629626</v>
       </c>
       <c r="F11">
-        <v>0.9742785139475453</v>
+        <v>1.004956670531875</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035046987363113</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9995980860451713</v>
+        <v>1.002970601549752</v>
       </c>
       <c r="K11">
-        <v>0.9957187960002</v>
+        <v>1.006764512337458</v>
       </c>
       <c r="L11">
-        <v>0.9962999280843496</v>
+        <v>1.008707740889095</v>
       </c>
       <c r="M11">
-        <v>0.9897023669679286</v>
+        <v>1.019785712791132</v>
       </c>
       <c r="N11">
-        <v>1.001017629982858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004127077137676</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024726851534768</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.015923893946177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9674865152869736</v>
+        <v>0.9718650649990056</v>
       </c>
       <c r="D12">
-        <v>0.9792342961115713</v>
+        <v>0.9913673714157442</v>
       </c>
       <c r="E12">
-        <v>0.9799175396780779</v>
+        <v>0.9935226564173409</v>
       </c>
       <c r="F12">
-        <v>0.9727164470277464</v>
+        <v>1.005116083009167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034711936759484</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9987336198081057</v>
+        <v>1.002909791020391</v>
       </c>
       <c r="K12">
-        <v>0.9947704490510784</v>
+        <v>1.006661849065637</v>
       </c>
       <c r="L12">
-        <v>0.9954398738573447</v>
+        <v>1.008775013213053</v>
       </c>
       <c r="M12">
-        <v>0.9883857131328643</v>
+        <v>1.020145918964057</v>
       </c>
       <c r="N12">
-        <v>1.000151936104581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004151519610341</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025342774640246</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.015851304077657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677841944666578</v>
+        <v>0.9726021191082015</v>
       </c>
       <c r="D13">
-        <v>0.9794888329989501</v>
+        <v>0.9919599472496342</v>
       </c>
       <c r="E13">
-        <v>0.9801526306511198</v>
+        <v>0.9943165011653147</v>
       </c>
       <c r="F13">
-        <v>0.973052463601606</v>
+        <v>1.006111661708484</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034784098698209</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.9989195853177917</v>
+        <v>1.003515983848795</v>
       </c>
       <c r="K13">
-        <v>0.9949744394895408</v>
+        <v>1.007198262424284</v>
       </c>
       <c r="L13">
-        <v>0.995624865885497</v>
+        <v>1.0095090011799</v>
       </c>
       <c r="M13">
-        <v>0.9886689696738952</v>
+        <v>1.021079057374999</v>
       </c>
       <c r="N13">
-        <v>1.000338165706621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004418982053362</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026360579964058</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.016228027224463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9687563659637282</v>
+        <v>0.9736951843884303</v>
       </c>
       <c r="D14">
-        <v>0.9803203496059355</v>
+        <v>0.9927884030875829</v>
       </c>
       <c r="E14">
-        <v>0.9809206863924728</v>
+        <v>0.9952941210843388</v>
       </c>
       <c r="F14">
-        <v>0.9741498183161115</v>
+        <v>1.007184267122125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035019423391035</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9995268689876796</v>
+        <v>1.004242034951982</v>
       </c>
       <c r="K14">
-        <v>0.9956406597920334</v>
+        <v>1.007864762481788</v>
       </c>
       <c r="L14">
-        <v>0.9962290635557709</v>
+        <v>1.010322418589433</v>
       </c>
       <c r="M14">
-        <v>0.9895939043545179</v>
+        <v>1.021988751486608</v>
       </c>
       <c r="N14">
-        <v>1.000946311788976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004716398109445</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027254719928329</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.016700749167206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9693529275150142</v>
+        <v>0.9742471199853597</v>
       </c>
       <c r="D15">
-        <v>0.9808307826336023</v>
+        <v>0.9931983316182199</v>
       </c>
       <c r="E15">
-        <v>0.9813922125777181</v>
+        <v>0.9957486181050167</v>
       </c>
       <c r="F15">
-        <v>0.9748231825616828</v>
+        <v>1.007647758833059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035163563247985</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9998994827401452</v>
+        <v>1.004574084913042</v>
       </c>
       <c r="K15">
-        <v>0.9960494928408823</v>
+        <v>1.008177019462538</v>
       </c>
       <c r="L15">
-        <v>0.9965998547455324</v>
+        <v>1.010678780828331</v>
       </c>
       <c r="M15">
-        <v>0.9901613768511244</v>
+        <v>1.022355742202484</v>
       </c>
       <c r="N15">
-        <v>1.00131945469571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004845514647675</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027582653792553</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.01692755572262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9727889920420242</v>
+        <v>0.9769564455042196</v>
       </c>
       <c r="D16">
-        <v>0.9837734776072734</v>
+        <v>0.9951490044160924</v>
       </c>
       <c r="E16">
-        <v>0.9841113359412513</v>
+        <v>0.9978163190153831</v>
       </c>
       <c r="F16">
-        <v>0.9787014385656266</v>
+        <v>1.00960969257896</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03598972912508</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.002045028753678</v>
+        <v>1.006035307690381</v>
       </c>
       <c r="K16">
-        <v>0.9984044605633666</v>
+        <v>1.009569463854499</v>
       </c>
       <c r="L16">
-        <v>0.9987359746720248</v>
+        <v>1.012188318699816</v>
       </c>
       <c r="M16">
-        <v>0.9934283517328638</v>
+        <v>1.023771407419274</v>
       </c>
       <c r="N16">
-        <v>1.00346804763068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005372769894506</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028662522754576</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.017915352273009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9749133729039067</v>
+        <v>0.9784660472931912</v>
       </c>
       <c r="D17">
-        <v>0.9855951481219658</v>
+        <v>0.996216289590515</v>
       </c>
       <c r="E17">
-        <v>0.9857952301726848</v>
+        <v>0.9988937457322878</v>
       </c>
       <c r="F17">
-        <v>0.9810991012084107</v>
+        <v>1.010550157036423</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036496917222791</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.003370938730897</v>
+        <v>1.006777656939448</v>
       </c>
       <c r="K17">
-        <v>0.9998605503188916</v>
+        <v>1.010290987806487</v>
       </c>
       <c r="L17">
-        <v>1.000056990452471</v>
+        <v>1.012921199435612</v>
       </c>
       <c r="M17">
-        <v>0.9954468514440157</v>
+        <v>1.024375698360933</v>
       </c>
       <c r="N17">
-        <v>1.00479584055215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005621850059919</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029009929070462</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.018428169439293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9761416692718603</v>
+        <v>0.9790620016293166</v>
       </c>
       <c r="D18">
-        <v>0.9866492327763761</v>
+        <v>0.9965935775862137</v>
       </c>
       <c r="E18">
-        <v>0.9867698116907052</v>
+        <v>0.9991786606500938</v>
       </c>
       <c r="F18">
-        <v>0.9824853853495026</v>
+        <v>1.010633398941597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036788856077973</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.004137335787027</v>
+        <v>1.006940044568828</v>
       </c>
       <c r="K18">
-        <v>1.000702467177836</v>
+        <v>1.010471370523181</v>
       </c>
       <c r="L18">
-        <v>1.00082089129826</v>
+        <v>1.013011586557653</v>
       </c>
       <c r="M18">
-        <v>0.9966134512855968</v>
+        <v>1.024271076107528</v>
       </c>
       <c r="N18">
-        <v>1.005563325980007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005642995418584</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028686991668692</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.018543791236599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9765586828844639</v>
+        <v>0.9788664982527947</v>
       </c>
       <c r="D19">
-        <v>0.987007236252882</v>
+        <v>0.9963896692679062</v>
       </c>
       <c r="E19">
-        <v>0.9871008498062906</v>
+        <v>0.9987715357538394</v>
       </c>
       <c r="F19">
-        <v>0.9829560347337518</v>
+        <v>1.009952396174415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036887746717363</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.004397491155901</v>
+        <v>1.006612930436271</v>
       </c>
       <c r="K19">
-        <v>1.000988304382507</v>
+        <v>1.010206134294591</v>
       </c>
       <c r="L19">
-        <v>1.001080255549031</v>
+        <v>1.01254685034731</v>
       </c>
       <c r="M19">
-        <v>0.9970094381081351</v>
+        <v>1.023537887439065</v>
       </c>
       <c r="N19">
-        <v>1.005823850799345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005478468198659</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027777663789012</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.018362804409234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9746865735363944</v>
+        <v>0.9764169757079996</v>
       </c>
       <c r="D20">
-        <v>0.9854005813552783</v>
+        <v>0.9945056614521142</v>
       </c>
       <c r="E20">
-        <v>0.9856153559725632</v>
+        <v>0.9964163820957501</v>
       </c>
       <c r="F20">
-        <v>0.9808431287934524</v>
+        <v>1.00717197382815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036442905518588</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.003229407907413</v>
+        <v>1.004888259716216</v>
       </c>
       <c r="K20">
-        <v>0.9997050953717034</v>
+        <v>1.008645815122652</v>
       </c>
       <c r="L20">
-        <v>0.9999159474618489</v>
+        <v>1.010522539158626</v>
       </c>
       <c r="M20">
-        <v>0.9952314055951303</v>
+        <v>1.021089874223934</v>
       </c>
       <c r="N20">
-        <v>1.004654108738664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004780456456558</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025304999496534</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.017263573467115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9684705930355918</v>
+        <v>0.9711989875815638</v>
       </c>
       <c r="D21">
-        <v>0.9800758843583962</v>
+        <v>0.9907148896315423</v>
       </c>
       <c r="E21">
-        <v>0.9806948683048531</v>
+        <v>0.9923012677135002</v>
       </c>
       <c r="F21">
-        <v>0.9738272505187037</v>
+        <v>1.003163105834604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034950304025979</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9993483639819294</v>
+        <v>1.00195224912673</v>
       </c>
       <c r="K21">
-        <v>0.9954448189883974</v>
+        <v>1.005874332644172</v>
       </c>
       <c r="L21">
-        <v>0.9960514508264251</v>
+        <v>1.007429977745222</v>
       </c>
       <c r="M21">
-        <v>0.9893220383221615</v>
+        <v>1.018084798983179</v>
       </c>
       <c r="N21">
-        <v>1.000767553285643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003691548066511</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.022885075224466</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.015307260061523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9644573360908515</v>
+        <v>0.967876839687423</v>
       </c>
       <c r="D22">
-        <v>0.9766460941512356</v>
+        <v>0.9883065605963784</v>
       </c>
       <c r="E22">
-        <v>0.9775275956274935</v>
+        <v>0.9897113541342583</v>
       </c>
       <c r="F22">
-        <v>0.9692969559058303</v>
+        <v>1.000671520339828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033974886048538</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9968408681147506</v>
+        <v>1.00009468887964</v>
       </c>
       <c r="K22">
-        <v>0.9926948405415529</v>
+        <v>1.004113281300852</v>
       </c>
       <c r="L22">
-        <v>0.993557778571435</v>
+        <v>1.005489424100466</v>
       </c>
       <c r="M22">
-        <v>0.9855022102176497</v>
+        <v>1.016229686008645</v>
       </c>
       <c r="N22">
-        <v>0.9982564964867192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003002854106049</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021416839022373</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.014048190820175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9665951793898437</v>
+        <v>0.9696265777789396</v>
       </c>
       <c r="D23">
-        <v>0.9784723469771938</v>
+        <v>0.989564662395766</v>
       </c>
       <c r="E23">
-        <v>0.9792138568026795</v>
+        <v>0.991073204319573</v>
       </c>
       <c r="F23">
-        <v>0.9717102992637821</v>
+        <v>1.001983989564452</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034495572041128</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9981767457909254</v>
+        <v>1.001065827354164</v>
       </c>
       <c r="K23">
-        <v>0.9941596630826193</v>
+        <v>1.005028040220558</v>
       </c>
       <c r="L23">
-        <v>0.9948859941797648</v>
+        <v>1.006506635552093</v>
       </c>
       <c r="M23">
-        <v>0.9875374476200383</v>
+        <v>1.01720434258845</v>
       </c>
       <c r="N23">
-        <v>0.9995942712624216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003361367818213</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022188235069311</v>
+      </c>
+      <c r="Q23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R23">
+        <v>1.01468509762545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9747890877627486</v>
+        <v>0.9764027481288702</v>
       </c>
       <c r="D24">
-        <v>0.9854885238018124</v>
+        <v>0.9944719516377238</v>
       </c>
       <c r="E24">
-        <v>0.9856966568314774</v>
+        <v>0.9963680910552017</v>
       </c>
       <c r="F24">
-        <v>0.9809588294158065</v>
+        <v>1.00708846751195</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036467323101015</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.003293381130135</v>
+        <v>1.004840421229274</v>
       </c>
       <c r="K24">
-        <v>0.9997753615758758</v>
+        <v>1.008596846494542</v>
       </c>
       <c r="L24">
-        <v>0.9999796991481122</v>
+        <v>1.010459288702394</v>
       </c>
       <c r="M24">
-        <v>0.9953287894639178</v>
+        <v>1.020992234820035</v>
       </c>
       <c r="N24">
-        <v>1.0047181728107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004755757121615</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025186169935018</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.017200841763533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9838763788808618</v>
+        <v>0.9839907414612535</v>
       </c>
       <c r="D25">
-        <v>0.9933007116884395</v>
+        <v>1.000004504698049</v>
       </c>
       <c r="E25">
-        <v>0.9929233454695077</v>
+        <v>1.002332756088384</v>
       </c>
       <c r="F25">
-        <v>0.9912150703527277</v>
+        <v>1.012850596724044</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038603395122182</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.008958823542491</v>
+        <v>1.009069159344308</v>
       </c>
       <c r="K25">
-        <v>1.006003923390383</v>
+        <v>1.01260275073726</v>
       </c>
       <c r="L25">
-        <v>1.005632519791873</v>
+        <v>1.014894966637111</v>
       </c>
       <c r="M25">
-        <v>1.003951309235605</v>
+        <v>1.025252646065787</v>
       </c>
       <c r="N25">
-        <v>1.010391660801116</v>
+        <v>1.006313672299345</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.028558065161877</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.020030420529499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9897931397024878</v>
+        <v>0.9915761612611831</v>
       </c>
       <c r="D2">
-        <v>1.004235922761453</v>
+        <v>1.006269807448538</v>
       </c>
       <c r="E2">
-        <v>1.006916703262983</v>
+        <v>1.008389386315205</v>
       </c>
       <c r="F2">
-        <v>1.017295168454872</v>
+        <v>1.01847410343114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310602</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.012283481821725</v>
+        <v>1.01401178067417</v>
       </c>
       <c r="K2">
-        <v>1.015636558218926</v>
+        <v>1.017642479547266</v>
       </c>
       <c r="L2">
-        <v>1.018280511180413</v>
+        <v>1.019733067985629</v>
       </c>
       <c r="M2">
-        <v>1.028518699844039</v>
+        <v>1.02968192721841</v>
       </c>
       <c r="N2">
-        <v>1.007490103933903</v>
+        <v>1.01056647034156</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03114296669328</v>
+        <v>1.032063594718157</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.022126185028893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0235535712114</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01656044057479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9939259049997505</v>
+        <v>0.9954426567435318</v>
       </c>
       <c r="D3">
-        <v>1.0072802824051</v>
+        <v>1.008969889075533</v>
       </c>
       <c r="E3">
-        <v>1.01019742303478</v>
+        <v>1.011451058152475</v>
       </c>
       <c r="F3">
-        <v>1.020477247439425</v>
+        <v>1.02148036446543</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.014583536816963</v>
+        <v>1.016058335273553</v>
       </c>
       <c r="K3">
-        <v>1.017820850501447</v>
+        <v>1.019489270708051</v>
       </c>
       <c r="L3">
-        <v>1.020701467658983</v>
+        <v>1.021939487522836</v>
       </c>
       <c r="M3">
-        <v>1.030854654457719</v>
+        <v>1.03184558363242</v>
       </c>
       <c r="N3">
-        <v>1.008331930382105</v>
+        <v>1.011159139218123</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032991740115859</v>
+        <v>1.033776001962068</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.023668018351504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.024856464912185</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016989226047672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9965534217656878</v>
+        <v>0.9979034133665322</v>
       </c>
       <c r="D4">
-        <v>1.009223089944302</v>
+        <v>1.010695170562838</v>
       </c>
       <c r="E4">
-        <v>1.012289445124353</v>
+        <v>1.013405779310733</v>
       </c>
       <c r="F4">
-        <v>1.022508648253037</v>
+        <v>1.023401629185402</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.016045704165615</v>
+        <v>1.017360902520751</v>
       </c>
       <c r="K4">
-        <v>1.019211460423032</v>
+        <v>1.020666205557022</v>
       </c>
       <c r="L4">
-        <v>1.02224177602444</v>
+        <v>1.023345056664199</v>
       </c>
       <c r="M4">
-        <v>1.032342796610108</v>
+        <v>1.033225588781101</v>
       </c>
       <c r="N4">
-        <v>1.008865960512119</v>
+        <v>1.011535688254817</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034169516303073</v>
+        <v>1.034868192978345</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.024652258941834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.025689686539161</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017259785241444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976524262136747</v>
+        <v>0.9989330126446078</v>
       </c>
       <c r="D5">
-        <v>1.010040518299739</v>
+        <v>1.011421731177373</v>
       </c>
       <c r="E5">
-        <v>1.013166199713901</v>
+        <v>1.014225357634844</v>
       </c>
       <c r="F5">
-        <v>1.023359753781228</v>
+        <v>1.024206888077739</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.016659386847713</v>
+        <v>1.017907963194839</v>
       </c>
       <c r="K5">
-        <v>1.019797655315999</v>
+        <v>1.021163039900466</v>
       </c>
       <c r="L5">
-        <v>1.022887593417683</v>
+        <v>1.02393470110843</v>
       </c>
       <c r="M5">
-        <v>1.032966447251699</v>
+        <v>1.033804175782335</v>
       </c>
       <c r="N5">
-        <v>1.009090228761735</v>
+        <v>1.011693981655342</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034663098183913</v>
+        <v>1.035326109263161</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.025074084161837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.026049027177685</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017374036432846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978426624009357</v>
+        <v>0.9991109806167302</v>
       </c>
       <c r="D6">
-        <v>1.010185875702006</v>
+        <v>1.011551138366354</v>
       </c>
       <c r="E6">
-        <v>1.013318387382347</v>
+        <v>1.014367424177573</v>
       </c>
       <c r="F6">
-        <v>1.023506564270185</v>
+        <v>1.024345587053047</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.016768249791865</v>
+        <v>1.018005029204381</v>
       </c>
       <c r="K6">
-        <v>1.019904148050278</v>
+        <v>1.021253837701726</v>
       </c>
       <c r="L6">
-        <v>1.023001005234007</v>
+        <v>1.024038162476684</v>
       </c>
       <c r="M6">
-        <v>1.033075075573514</v>
+        <v>1.033904825746216</v>
       </c>
       <c r="N6">
-        <v>1.009130499605607</v>
+        <v>1.011722441267928</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034749070915739</v>
+        <v>1.035405767533924</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.025158309463163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026123017292057</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017395719828355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9965852943792175</v>
+        <v>0.9979408148663539</v>
       </c>
       <c r="D7">
-        <v>1.009256878325914</v>
+        <v>1.010732444587527</v>
       </c>
       <c r="E7">
-        <v>1.012315791469246</v>
+        <v>1.013436927426171</v>
       </c>
       <c r="F7">
-        <v>1.022531629858521</v>
+        <v>1.023428396174936</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.01607063101836</v>
+        <v>1.017391231849937</v>
       </c>
       <c r="K7">
-        <v>1.019241885824376</v>
+        <v>1.020700082892449</v>
       </c>
       <c r="L7">
-        <v>1.022264861554633</v>
+        <v>1.023372893128516</v>
       </c>
       <c r="M7">
-        <v>1.032362602918702</v>
+        <v>1.0332491413149</v>
       </c>
       <c r="N7">
-        <v>1.008876454752407</v>
+        <v>1.011571714608341</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034185191807451</v>
+        <v>1.034886833376599</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.024694301312061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.025736155218107</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017270644233077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9912216667858014</v>
+        <v>0.9929367852027809</v>
       </c>
       <c r="D8">
-        <v>1.005299332540805</v>
+        <v>1.007234032594168</v>
       </c>
       <c r="E8">
-        <v>1.008050681381083</v>
+        <v>1.009468477784343</v>
       </c>
       <c r="F8">
-        <v>1.018391263529353</v>
+        <v>1.019525879777623</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.013087610884414</v>
+        <v>1.01475187929011</v>
       </c>
       <c r="K8">
-        <v>1.016407996314401</v>
+        <v>1.018316897884642</v>
       </c>
       <c r="L8">
-        <v>1.019122694276091</v>
+        <v>1.020521701990483</v>
       </c>
       <c r="M8">
-        <v>1.029327745400504</v>
+        <v>1.030447699976294</v>
       </c>
       <c r="N8">
-        <v>1.007786488239823</v>
+        <v>1.010862115272933</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.031783280168262</v>
+        <v>1.032669659453896</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.022695095979339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.024056120830375</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016722986258192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9813670228099298</v>
+        <v>0.9837377730318324</v>
       </c>
       <c r="D9">
-        <v>0.9980713384088765</v>
+        <v>1.00083961748789</v>
       </c>
       <c r="E9">
-        <v>1.000264145037294</v>
+        <v>1.002220639243588</v>
       </c>
       <c r="F9">
-        <v>1.010854935984553</v>
+        <v>1.012422337729293</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.007595363496895</v>
+        <v>1.009878157574972</v>
       </c>
       <c r="K9">
-        <v>1.011195784496853</v>
+        <v>1.013919087156222</v>
       </c>
       <c r="L9">
-        <v>1.013352938125722</v>
+        <v>1.015277790576355</v>
       </c>
       <c r="M9">
-        <v>1.023774320595106</v>
+        <v>1.025317035730148</v>
       </c>
       <c r="N9">
-        <v>1.005768807549276</v>
+        <v>1.009455981514262</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.027388048862709</v>
+        <v>1.028609026125167</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.019006287291248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02094293366768</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0156849033795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9746170294958966</v>
+        <v>0.9774861549171661</v>
       </c>
       <c r="D10">
-        <v>0.9931772809348085</v>
+        <v>0.9965514905287023</v>
       </c>
       <c r="E10">
-        <v>0.9950134418729614</v>
+        <v>0.9973792474404189</v>
       </c>
       <c r="F10">
-        <v>1.005835833126886</v>
+        <v>1.007732039069449</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.003875225303718</v>
+        <v>1.006622400058864</v>
       </c>
       <c r="K10">
-        <v>1.007670824122249</v>
+        <v>1.010983289284543</v>
       </c>
       <c r="L10">
-        <v>1.009473317653554</v>
+        <v>1.01179598215735</v>
       </c>
       <c r="M10">
-        <v>1.020100513214719</v>
+        <v>1.021963078536947</v>
       </c>
       <c r="N10">
-        <v>1.004403813968177</v>
+        <v>1.008631525025681</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.024532740087626</v>
+        <v>1.026006772778821</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.016531025085008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.018885950331163</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.014988898290714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9724029139731619</v>
+        <v>0.9754597398853732</v>
       </c>
       <c r="D11">
-        <v>0.9916840466547826</v>
+        <v>0.9952688308125973</v>
       </c>
       <c r="E11">
-        <v>0.9936653656629626</v>
+        <v>0.9961824595537069</v>
       </c>
       <c r="F11">
-        <v>1.004956670531875</v>
+        <v>1.00697283746768</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.002970601549752</v>
+        <v>1.005890298261651</v>
       </c>
       <c r="K11">
-        <v>1.006764512337458</v>
+        <v>1.010280525019684</v>
       </c>
       <c r="L11">
-        <v>1.008707740889095</v>
+        <v>1.011176729986488</v>
       </c>
       <c r="M11">
-        <v>1.019785712791132</v>
+        <v>1.021764443503377</v>
       </c>
       <c r="N11">
-        <v>1.004127077137676</v>
+        <v>1.008691937845964</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024726851534768</v>
+        <v>1.026292005382216</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.015923893946177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.018425914354415</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014877697726369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9718650649990056</v>
+        <v>0.974958693121239</v>
       </c>
       <c r="D12">
-        <v>0.9913673714157442</v>
+        <v>0.9949924956847985</v>
       </c>
       <c r="E12">
-        <v>0.9935226564173409</v>
+        <v>0.99606651145084</v>
       </c>
       <c r="F12">
-        <v>1.005116083009167</v>
+        <v>1.007152978175545</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.002909791020391</v>
+        <v>1.005862001325381</v>
       </c>
       <c r="K12">
-        <v>1.006661849065637</v>
+        <v>1.010216264521704</v>
       </c>
       <c r="L12">
-        <v>1.008775013213053</v>
+        <v>1.01126946089635</v>
       </c>
       <c r="M12">
-        <v>1.020145918964057</v>
+        <v>1.022144409612478</v>
       </c>
       <c r="N12">
-        <v>1.004151519610341</v>
+        <v>1.008820446387933</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025342774640246</v>
+        <v>1.026923008735165</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.015851304077657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.018380479144161</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.014903701113248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9726021191082015</v>
+        <v>0.9756040732957925</v>
       </c>
       <c r="D13">
-        <v>0.9919599472496342</v>
+        <v>0.9954842879873671</v>
       </c>
       <c r="E13">
-        <v>0.9943165011653147</v>
+        <v>0.9967805997930976</v>
       </c>
       <c r="F13">
-        <v>1.006111661708484</v>
+        <v>1.008084537196483</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.003515983848795</v>
+        <v>1.006381494692024</v>
       </c>
       <c r="K13">
-        <v>1.007198262424284</v>
+        <v>1.010654189676967</v>
       </c>
       <c r="L13">
-        <v>1.0095090011799</v>
+        <v>1.011925497234222</v>
       </c>
       <c r="M13">
-        <v>1.021079057374999</v>
+        <v>1.0230149527714</v>
       </c>
       <c r="N13">
-        <v>1.004418982053362</v>
+        <v>1.008978958384214</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026360579964058</v>
+        <v>1.027890926101243</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.016228027224463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.018687317081826</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.015042922385404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9736951843884303</v>
+        <v>0.9765757786274784</v>
       </c>
       <c r="D14">
-        <v>0.9927884030875829</v>
+        <v>0.9961791489625006</v>
       </c>
       <c r="E14">
-        <v>0.9952941210843388</v>
+        <v>0.997655204079098</v>
       </c>
       <c r="F14">
-        <v>1.007184267122125</v>
+        <v>1.009074816686853</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.004242034951982</v>
+        <v>1.006993677115773</v>
       </c>
       <c r="K14">
-        <v>1.007864762481788</v>
+        <v>1.011190546441201</v>
       </c>
       <c r="L14">
-        <v>1.010322418589433</v>
+        <v>1.012638502815863</v>
       </c>
       <c r="M14">
-        <v>1.021988751486608</v>
+        <v>1.023844347810261</v>
       </c>
       <c r="N14">
-        <v>1.004716398109445</v>
+        <v>1.009105026786362</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027254719928329</v>
+        <v>1.028721387858458</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.016700749167206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.019068144583256</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01519270926467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9742471199853597</v>
+        <v>0.977070548599126</v>
       </c>
       <c r="D15">
-        <v>0.9931983316182199</v>
+        <v>0.9965257173502418</v>
       </c>
       <c r="E15">
-        <v>0.9957486181050167</v>
+        <v>0.9980618383184841</v>
       </c>
       <c r="F15">
-        <v>1.007647758833059</v>
+        <v>1.009500078169569</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.004574084913042</v>
+        <v>1.007272263834449</v>
       </c>
       <c r="K15">
-        <v>1.008177019462538</v>
+        <v>1.011441158487969</v>
       </c>
       <c r="L15">
-        <v>1.010678780828331</v>
+        <v>1.012948266869247</v>
       </c>
       <c r="M15">
-        <v>1.022355742202484</v>
+        <v>1.024174088681876</v>
       </c>
       <c r="N15">
-        <v>1.004845514647675</v>
+        <v>1.009148201916482</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027582653792553</v>
+        <v>1.029019841201179</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.01692755572262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.019251921566316</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015257313043752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769564455042196</v>
+        <v>0.9795302628503532</v>
       </c>
       <c r="D16">
-        <v>0.9951490044160924</v>
+        <v>0.9981937144994464</v>
       </c>
       <c r="E16">
-        <v>0.9978163190153831</v>
+        <v>0.9999239321196742</v>
       </c>
       <c r="F16">
-        <v>1.00960969257896</v>
+        <v>1.01129758168787</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.006035307690381</v>
+        <v>1.008500773601494</v>
       </c>
       <c r="K16">
-        <v>1.009569463854499</v>
+        <v>1.012558884860255</v>
       </c>
       <c r="L16">
-        <v>1.012188318699816</v>
+        <v>1.014257878347486</v>
       </c>
       <c r="M16">
-        <v>1.023771407419274</v>
+        <v>1.025429719859049</v>
       </c>
       <c r="N16">
-        <v>1.005372769894506</v>
+        <v>1.009287237861616</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028662522754576</v>
+        <v>1.029973260444578</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.017915352273009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.020045758401307</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.015513190065082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784660472931912</v>
+        <v>0.980921286697175</v>
       </c>
       <c r="D17">
-        <v>0.996216289590515</v>
+        <v>0.9991215013434079</v>
       </c>
       <c r="E17">
-        <v>0.9988937457322878</v>
+        <v>1.000905381809574</v>
       </c>
       <c r="F17">
-        <v>1.010550157036423</v>
+        <v>1.012161180444284</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.006777656939448</v>
+        <v>1.009132902889603</v>
       </c>
       <c r="K17">
-        <v>1.010290987806487</v>
+        <v>1.013144951376352</v>
       </c>
       <c r="L17">
-        <v>1.012921199435612</v>
+        <v>1.014897555004239</v>
       </c>
       <c r="M17">
-        <v>1.024375698360933</v>
+        <v>1.025959287893175</v>
       </c>
       <c r="N17">
-        <v>1.005621850059919</v>
+        <v>1.009358298294812</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029009929070462</v>
+        <v>1.030261732095553</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.018428169439293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.020463037219532</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.015633564280241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9790620016293166</v>
+        <v>0.981489743812775</v>
       </c>
       <c r="D18">
-        <v>0.9965935775862137</v>
+        <v>0.9994622001785538</v>
       </c>
       <c r="E18">
-        <v>0.9991786606500938</v>
+        <v>1.001170578712432</v>
       </c>
       <c r="F18">
-        <v>1.010633398941597</v>
+        <v>1.012228656226703</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.006940044568828</v>
+        <v>1.009270757856777</v>
       </c>
       <c r="K18">
-        <v>1.010471370523181</v>
+        <v>1.013290223209487</v>
       </c>
       <c r="L18">
-        <v>1.013011586557653</v>
+        <v>1.01496913698853</v>
       </c>
       <c r="M18">
-        <v>1.024271076107528</v>
+        <v>1.025839593646101</v>
       </c>
       <c r="N18">
-        <v>1.005642995418584</v>
+        <v>1.00932945882482</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028686991668692</v>
+        <v>1.02992714395279</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.018543791236599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020552712269251</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.015636399638947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9788664982527947</v>
+        <v>0.9813360769551185</v>
       </c>
       <c r="D19">
-        <v>0.9963896692679062</v>
+        <v>0.9993032595373988</v>
       </c>
       <c r="E19">
-        <v>0.9987715357538394</v>
+        <v>1.000801527539004</v>
       </c>
       <c r="F19">
-        <v>1.009952396174415</v>
+        <v>1.011578442594466</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.006612930436271</v>
+        <v>1.008984339087549</v>
       </c>
       <c r="K19">
-        <v>1.010206134294591</v>
+        <v>1.013069422406599</v>
       </c>
       <c r="L19">
-        <v>1.01254685034731</v>
+        <v>1.014541970674449</v>
       </c>
       <c r="M19">
-        <v>1.023537887439065</v>
+        <v>1.025136777854747</v>
       </c>
       <c r="N19">
-        <v>1.005478468198659</v>
+        <v>1.00920323566551</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027777663789012</v>
+        <v>1.029042253471663</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.018362804409234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.020403763349512</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.015546792503965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9764169757079996</v>
+        <v>0.9791254417086656</v>
       </c>
       <c r="D20">
-        <v>0.9945056614521142</v>
+        <v>0.9976956368763713</v>
       </c>
       <c r="E20">
-        <v>0.9964163820957501</v>
+        <v>0.998649048996912</v>
       </c>
       <c r="F20">
-        <v>1.00717197382815</v>
+        <v>1.008961506747875</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.004888259716216</v>
+        <v>1.007485454185159</v>
       </c>
       <c r="K20">
-        <v>1.008645815122652</v>
+        <v>1.011779127116059</v>
       </c>
       <c r="L20">
-        <v>1.010522539158626</v>
+        <v>1.012715694917345</v>
       </c>
       <c r="M20">
-        <v>1.021089874223934</v>
+        <v>1.022848588147348</v>
       </c>
       <c r="N20">
-        <v>1.004780456456558</v>
+        <v>1.008784974945111</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025304999496534</v>
+        <v>1.026696861224276</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.017263573467115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.019495855219131</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015182664436505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9711989875815638</v>
+        <v>0.9744218611573189</v>
       </c>
       <c r="D21">
-        <v>0.9907148896315423</v>
+        <v>0.9944794813405192</v>
       </c>
       <c r="E21">
-        <v>0.9923012677135002</v>
+        <v>0.9949629947617165</v>
       </c>
       <c r="F21">
-        <v>1.003163105834604</v>
+        <v>1.005296173490744</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.00195224912673</v>
+        <v>1.005029334481987</v>
       </c>
       <c r="K21">
-        <v>1.005874332644172</v>
+        <v>1.009566201898946</v>
       </c>
       <c r="L21">
-        <v>1.007429977745222</v>
+        <v>1.010040427266151</v>
       </c>
       <c r="M21">
-        <v>1.018084798983179</v>
+        <v>1.020177898161462</v>
       </c>
       <c r="N21">
-        <v>1.003691548066511</v>
+        <v>1.008491801088443</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.022885075224466</v>
+        <v>1.024541662679711</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.015307260061523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.017934824897221</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014656298000309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.967876839687423</v>
+        <v>0.9714298131554988</v>
       </c>
       <c r="D22">
-        <v>0.9883065605963784</v>
+        <v>0.9924382140962981</v>
       </c>
       <c r="E22">
-        <v>0.9897113541342583</v>
+        <v>0.9926485522615123</v>
       </c>
       <c r="F22">
-        <v>1.000671520339828</v>
+        <v>1.003025057589327</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.00009468887964</v>
+        <v>1.003477291527355</v>
       </c>
       <c r="K22">
-        <v>1.004113281300852</v>
+        <v>1.008160974701472</v>
       </c>
       <c r="L22">
-        <v>1.005489424100466</v>
+        <v>1.00836706316561</v>
       </c>
       <c r="M22">
-        <v>1.016229686008645</v>
+        <v>1.018536824753835</v>
       </c>
       <c r="N22">
-        <v>1.003002854106049</v>
+        <v>1.008302049125257</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021416839022373</v>
+        <v>1.023242832251457</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.014048190820175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.016926088315853</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014320715838551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696265777789396</v>
+        <v>0.972992123727762</v>
       </c>
       <c r="D23">
-        <v>0.989564662395766</v>
+        <v>0.9934918305542705</v>
       </c>
       <c r="E23">
-        <v>0.991073204319573</v>
+        <v>0.9938533282895688</v>
       </c>
       <c r="F23">
-        <v>1.001983989564452</v>
+        <v>1.004211979961568</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.001065827354164</v>
+        <v>1.00427486061704</v>
       </c>
       <c r="K23">
-        <v>1.005028040220558</v>
+        <v>1.00887749797956</v>
       </c>
       <c r="L23">
-        <v>1.006506635552093</v>
+        <v>1.009231882958797</v>
       </c>
       <c r="M23">
-        <v>1.01720434258845</v>
+        <v>1.019389567280478</v>
       </c>
       <c r="N23">
-        <v>1.003361367818213</v>
+        <v>1.008353461591359</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022188235069311</v>
+        <v>1.023917737131088</v>
       </c>
       <c r="Q23">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.01468509762545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.01742189372706</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014487969928405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9764027481288702</v>
+        <v>0.979116406572799</v>
       </c>
       <c r="D24">
-        <v>0.9944719516377238</v>
+        <v>0.9976674091923713</v>
       </c>
       <c r="E24">
-        <v>0.9963680910552017</v>
+        <v>0.9986055311601661</v>
       </c>
       <c r="F24">
-        <v>1.00708846751195</v>
+        <v>1.008881913823863</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.004840421229274</v>
+        <v>1.007442748617835</v>
       </c>
       <c r="K24">
-        <v>1.008596846494542</v>
+        <v>1.01173561194153</v>
       </c>
       <c r="L24">
-        <v>1.010459288702394</v>
+        <v>1.012657179568338</v>
       </c>
       <c r="M24">
-        <v>1.020992234820035</v>
+        <v>1.022754828018498</v>
       </c>
       <c r="N24">
-        <v>1.004755757121615</v>
+        <v>1.008763372839224</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025186169935018</v>
+        <v>1.026581173333011</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.017200841763533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.019434346401773</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015164248417457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9839907414612535</v>
+        <v>0.9861723193413292</v>
       </c>
       <c r="D25">
-        <v>1.000004504698049</v>
+        <v>1.002539580076274</v>
       </c>
       <c r="E25">
-        <v>1.002332756088384</v>
+        <v>1.004133485269335</v>
       </c>
       <c r="F25">
-        <v>1.012850596724044</v>
+        <v>1.014292909950999</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.009069159344308</v>
+        <v>1.011174172489614</v>
       </c>
       <c r="K25">
-        <v>1.01260275073726</v>
+        <v>1.015098599843435</v>
       </c>
       <c r="L25">
-        <v>1.014894966637111</v>
+        <v>1.016667971306415</v>
       </c>
       <c r="M25">
-        <v>1.025252646065787</v>
+        <v>1.026673325914166</v>
       </c>
       <c r="N25">
-        <v>1.006313672299345</v>
+        <v>1.009801414141677</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.028558065161877</v>
+        <v>1.029682456134768</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.020030420529499</v>
+        <v>1.021808996200146</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.015968533277276</v>
       </c>
     </row>
   </sheetData>
